--- a/autosklad/uploads/22222.xlsx
+++ b/autosklad/uploads/22222.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Ожидается</t>
   </si>
   <si>
-    <t>16.01.2024 г.</t>
+    <t>24.01.2024 г.</t>
   </si>
   <si>
     <t>Артикул</t>
@@ -96,10 +96,10 @@
     <t>Итого</t>
   </si>
   <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>315 Пластиковый придверный поддон</t>
+    <t>ANM.301.315</t>
+  </si>
+  <si>
+    <t>ANM.301.315 Решетка придверная грязезащитная стальная 39 х 59 cм + пластиковый поддон (комплект)</t>
   </si>
   <si>
     <t>шт</t>
@@ -108,12 +108,6 @@
     <t>Всеинструменты</t>
   </si>
   <si>
-    <t>ANM.301.315</t>
-  </si>
-  <si>
-    <t>ANM.301.315 Решетка придверная грязезащитная стальная 39 х 59 cм + пластиковый поддон (комплект)</t>
-  </si>
-  <si>
     <t>ANM.39*59</t>
   </si>
   <si>
@@ -271,18 +265,6 @@
   </si>
   <si>
     <t>7280-К-8 Экобордюр КОНТУР Б-100.08.08 пластиковый черный L-1000 мм,  H-80 мм, (УПАКОВКА 8 шт.)</t>
-  </si>
-  <si>
-    <t>8210</t>
-  </si>
-  <si>
-    <t>8210 Бордюр тротуарный пластиковый черный L=3000 мм Н45</t>
-  </si>
-  <si>
-    <t>8211</t>
-  </si>
-  <si>
-    <t>8211 Бордюр тротуарный пластиковый черный L=3000 мм H60</t>
   </si>
   <si>
     <t>8910-30</t>
@@ -569,7 +551,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="O120"/>
+  <dimension ref="O113"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -713,19 +695,23 @@
       <c r="F9" s="8" t="e"/>
       <c r="G9" s="8" t="e"/>
       <c r="H9" s="9" t="n">
-        <v>83</v>
-      </c>
-      <c r="I9" s="10" t="e"/>
+        <v>80</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J9" s="10" t="e"/>
       <c r="K9" s="9" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L9" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="M9" s="10" t="e"/>
+      <c r="M9" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="N9" s="9" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="O9" s="10" t="e"/>
     </row>
@@ -740,21 +726,17 @@
       <c r="F10" s="8" t="e"/>
       <c r="G10" s="8" t="e"/>
       <c r="H10" s="9" t="n">
-        <v>178</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="I10" s="10" t="e"/>
       <c r="J10" s="10" t="e"/>
       <c r="K10" s="9" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L10" s="10" t="e"/>
-      <c r="M10" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" s="10" t="e"/>
       <c r="N10" s="9" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O10" s="10" t="e"/>
     </row>
@@ -769,21 +751,21 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="L11" s="10" t="e"/>
       <c r="M11" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="11" t="n">
-        <v>1399</v>
+        <v>1380</v>
       </c>
       <c r="O11" s="10" t="e"/>
     </row>
@@ -798,21 +780,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1676</v>
+        <v>1594</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1676</v>
+        <v>1594</v>
       </c>
       <c r="O12" s="10" t="e"/>
     </row>
@@ -827,27 +809,27 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>3374</v>
+        <v>3350</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>3335</v>
+        <v>3231</v>
       </c>
       <c r="L13" s="14" t="n">
         <v>30</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>3365</v>
+        <v>3261</v>
       </c>
       <c r="O13" s="15" t="e"/>
     </row>
-    <row r="14" ht="11" customHeight="true">
+    <row r="14" ht="22" customHeight="true">
       <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
@@ -862,18 +844,18 @@
         <v>25</v>
       </c>
       <c r="H14" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="18" t="e"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>5</v>
+      </c>
       <c r="J14" s="18" t="e"/>
-      <c r="K14" s="17" t="n">
-        <v>3</v>
-      </c>
+      <c r="K14" s="18" t="e"/>
       <c r="L14" s="18" t="e"/>
-      <c r="M14" s="18" t="e"/>
-      <c r="N14" s="17" t="n">
-        <v>3</v>
-      </c>
+      <c r="M14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" s="18" t="e"/>
       <c r="O14" s="19" t="e"/>
     </row>
     <row r="15" ht="11" customHeight="true" outlineLevel="1">
@@ -887,21 +869,21 @@
       <c r="F15" s="20" t="e"/>
       <c r="G15" s="20" t="e"/>
       <c r="H15" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10" t="e"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="J15" s="10" t="e"/>
-      <c r="K15" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="K15" s="10" t="e"/>
       <c r="L15" s="10" t="e"/>
-      <c r="M15" s="10" t="e"/>
-      <c r="N15" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M15" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" s="10" t="e"/>
       <c r="O15" s="21" t="e"/>
     </row>
-    <row r="16" ht="22" customHeight="true">
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
@@ -916,23 +898,27 @@
         <v>25</v>
       </c>
       <c r="H16" s="17" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I16" s="18" t="e"/>
       <c r="J16" s="18" t="e"/>
       <c r="K16" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" s="18" t="e"/>
+        <v>50</v>
+      </c>
+      <c r="L16" s="17" t="n">
+        <v>30</v>
+      </c>
       <c r="M16" s="18" t="e"/>
       <c r="N16" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" s="19" t="e"/>
+        <v>80</v>
+      </c>
+      <c r="O16" s="17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="1">
       <c r="A17" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="20" t="e"/>
       <c r="C17" s="20" t="e"/>
@@ -941,52 +927,44 @@
       <c r="F17" s="20" t="e"/>
       <c r="G17" s="20" t="e"/>
       <c r="H17" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="10" t="e"/>
       <c r="J17" s="10" t="e"/>
       <c r="K17" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" s="10" t="e"/>
       <c r="M17" s="10" t="e"/>
       <c r="N17" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17" s="21" t="e"/>
     </row>
-    <row r="18" ht="11" customHeight="true">
-      <c r="A18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="16" t="e"/>
-      <c r="C18" s="16" t="e"/>
-      <c r="D18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="16" t="e"/>
-      <c r="F18" s="16" t="e"/>
-      <c r="G18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="I18" s="18" t="e"/>
-      <c r="J18" s="18" t="e"/>
-      <c r="K18" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="L18" s="17" t="n">
-        <v>30</v>
-      </c>
-      <c r="M18" s="18" t="e"/>
-      <c r="N18" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="O18" s="17" t="n">
-        <v>30</v>
-      </c>
+    <row r="18" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="20" t="e"/>
+      <c r="C18" s="20" t="e"/>
+      <c r="D18" s="20" t="e"/>
+      <c r="E18" s="20" t="e"/>
+      <c r="F18" s="20" t="e"/>
+      <c r="G18" s="20" t="e"/>
+      <c r="H18" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="I18" s="10" t="e"/>
+      <c r="J18" s="10" t="e"/>
+      <c r="K18" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="L18" s="10" t="e"/>
+      <c r="M18" s="10" t="e"/>
+      <c r="N18" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="O18" s="21" t="e"/>
     </row>
     <row r="19" ht="11" customHeight="true" outlineLevel="1">
       <c r="A19" s="20" t="s">
@@ -998,49 +976,53 @@
       <c r="E19" s="20" t="e"/>
       <c r="F19" s="20" t="e"/>
       <c r="G19" s="20" t="e"/>
-      <c r="H19" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="H19" s="10" t="e"/>
       <c r="I19" s="10" t="e"/>
       <c r="J19" s="10" t="e"/>
-      <c r="K19" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L19" s="10" t="e"/>
+      <c r="K19" s="10" t="e"/>
+      <c r="L19" s="9" t="n">
+        <v>30</v>
+      </c>
       <c r="M19" s="10" t="e"/>
       <c r="N19" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O19" s="21" t="e"/>
-    </row>
-    <row r="20" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="11" customHeight="true">
+      <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="20" t="e"/>
-      <c r="C20" s="20" t="e"/>
-      <c r="D20" s="20" t="e"/>
-      <c r="E20" s="20" t="e"/>
-      <c r="F20" s="20" t="e"/>
-      <c r="G20" s="20" t="e"/>
-      <c r="H20" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="I20" s="10" t="e"/>
-      <c r="J20" s="10" t="e"/>
-      <c r="K20" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="L20" s="10" t="e"/>
-      <c r="M20" s="10" t="e"/>
-      <c r="N20" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="O20" s="21" t="e"/>
+      <c r="B20" s="16" t="e"/>
+      <c r="C20" s="16" t="e"/>
+      <c r="D20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="16" t="e"/>
+      <c r="F20" s="16" t="e"/>
+      <c r="G20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" s="18" t="e"/>
+      <c r="J20" s="18" t="e"/>
+      <c r="K20" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L20" s="18" t="e"/>
+      <c r="M20" s="18" t="e"/>
+      <c r="N20" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="O20" s="19" t="e"/>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="1">
       <c r="A21" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="20" t="e"/>
       <c r="C21" s="20" t="e"/>
@@ -1048,78 +1030,78 @@
       <c r="E21" s="20" t="e"/>
       <c r="F21" s="20" t="e"/>
       <c r="G21" s="20" t="e"/>
-      <c r="H21" s="10" t="e"/>
+      <c r="H21" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I21" s="10" t="e"/>
       <c r="J21" s="10" t="e"/>
-      <c r="K21" s="10" t="e"/>
-      <c r="L21" s="9" t="n">
-        <v>30</v>
-      </c>
+      <c r="K21" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="10" t="e"/>
       <c r="M21" s="10" t="e"/>
       <c r="N21" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="O21" s="9" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
-      <c r="A22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="21" t="e"/>
+    </row>
+    <row r="22" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="20" t="e"/>
+      <c r="C22" s="20" t="e"/>
+      <c r="D22" s="20" t="e"/>
+      <c r="E22" s="20" t="e"/>
+      <c r="F22" s="20" t="e"/>
+      <c r="G22" s="20" t="e"/>
+      <c r="H22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" s="10" t="e"/>
+      <c r="J22" s="10" t="e"/>
+      <c r="K22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" s="10" t="e"/>
+      <c r="M22" s="10" t="e"/>
+      <c r="N22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" s="21" t="e"/>
+    </row>
+    <row r="23" ht="22" customHeight="true">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="16" t="e"/>
-      <c r="C22" s="16" t="e"/>
-      <c r="D22" s="16" t="s">
+      <c r="B23" s="16" t="e"/>
+      <c r="C23" s="16" t="e"/>
+      <c r="D23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="16" t="e"/>
-      <c r="F22" s="16" t="e"/>
-      <c r="G22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I22" s="18" t="e"/>
-      <c r="J22" s="18" t="e"/>
-      <c r="K22" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="L22" s="18" t="e"/>
-      <c r="M22" s="18" t="e"/>
-      <c r="N22" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="O22" s="19" t="e"/>
-    </row>
-    <row r="23" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="20" t="e"/>
-      <c r="C23" s="20" t="e"/>
-      <c r="D23" s="20" t="e"/>
-      <c r="E23" s="20" t="e"/>
-      <c r="F23" s="20" t="e"/>
-      <c r="G23" s="20" t="e"/>
-      <c r="H23" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="10" t="e"/>
-      <c r="J23" s="10" t="e"/>
-      <c r="K23" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="10" t="e"/>
-      <c r="M23" s="10" t="e"/>
-      <c r="N23" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" s="21" t="e"/>
+      <c r="E23" s="16" t="e"/>
+      <c r="F23" s="16" t="e"/>
+      <c r="G23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="I23" s="18" t="e"/>
+      <c r="J23" s="18" t="e"/>
+      <c r="K23" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" s="18" t="e"/>
+      <c r="M23" s="18" t="e"/>
+      <c r="N23" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="O23" s="19" t="e"/>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="1">
       <c r="A24" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="20" t="e"/>
       <c r="C24" s="20" t="e"/>
@@ -1173,7 +1155,7 @@
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="1">
       <c r="A26" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="20" t="e"/>
       <c r="C26" s="20" t="e"/>
@@ -1211,23 +1193,23 @@
         <v>25</v>
       </c>
       <c r="H27" s="17" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I27" s="18" t="e"/>
       <c r="J27" s="18" t="e"/>
       <c r="K27" s="17" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="L27" s="18" t="e"/>
       <c r="M27" s="18" t="e"/>
       <c r="N27" s="17" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="O27" s="19" t="e"/>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
       <c r="A28" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="20" t="e"/>
       <c r="C28" s="20" t="e"/>
@@ -1236,17 +1218,17 @@
       <c r="F28" s="20" t="e"/>
       <c r="G28" s="20" t="e"/>
       <c r="H28" s="9" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I28" s="10" t="e"/>
       <c r="J28" s="10" t="e"/>
       <c r="K28" s="9" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="L28" s="10" t="e"/>
       <c r="M28" s="10" t="e"/>
       <c r="N28" s="9" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="O28" s="21" t="e"/>
     </row>
@@ -1265,23 +1247,23 @@
         <v>25</v>
       </c>
       <c r="H29" s="17" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I29" s="18" t="e"/>
       <c r="J29" s="18" t="e"/>
       <c r="K29" s="17" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="L29" s="18" t="e"/>
       <c r="M29" s="18" t="e"/>
       <c r="N29" s="17" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="O29" s="19" t="e"/>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
       <c r="A30" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" s="20" t="e"/>
       <c r="C30" s="20" t="e"/>
@@ -1290,77 +1272,77 @@
       <c r="F30" s="20" t="e"/>
       <c r="G30" s="20" t="e"/>
       <c r="H30" s="9" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="I30" s="10" t="e"/>
       <c r="J30" s="10" t="e"/>
       <c r="K30" s="9" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="L30" s="10" t="e"/>
       <c r="M30" s="10" t="e"/>
       <c r="N30" s="9" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="O30" s="21" t="e"/>
     </row>
-    <row r="31" ht="22" customHeight="true">
-      <c r="A31" s="16" t="s">
+    <row r="31" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="e"/>
+      <c r="C31" s="20" t="e"/>
+      <c r="D31" s="20" t="e"/>
+      <c r="E31" s="20" t="e"/>
+      <c r="F31" s="20" t="e"/>
+      <c r="G31" s="20" t="e"/>
+      <c r="H31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" s="10" t="e"/>
+      <c r="J31" s="10" t="e"/>
+      <c r="K31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L31" s="10" t="e"/>
+      <c r="M31" s="10" t="e"/>
+      <c r="N31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" s="21" t="e"/>
+    </row>
+    <row r="32" ht="22" customHeight="true">
+      <c r="A32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="16" t="e"/>
-      <c r="C31" s="16" t="e"/>
-      <c r="D31" s="16" t="s">
+      <c r="B32" s="16" t="e"/>
+      <c r="C32" s="16" t="e"/>
+      <c r="D32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="16" t="e"/>
-      <c r="F31" s="16" t="e"/>
-      <c r="G31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I31" s="18" t="e"/>
-      <c r="J31" s="18" t="e"/>
-      <c r="K31" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="L31" s="18" t="e"/>
-      <c r="M31" s="18" t="e"/>
-      <c r="N31" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="O31" s="19" t="e"/>
-    </row>
-    <row r="32" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="e"/>
-      <c r="C32" s="20" t="e"/>
-      <c r="D32" s="20" t="e"/>
-      <c r="E32" s="20" t="e"/>
-      <c r="F32" s="20" t="e"/>
-      <c r="G32" s="20" t="e"/>
-      <c r="H32" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="10" t="e"/>
-      <c r="J32" s="10" t="e"/>
-      <c r="K32" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10" t="e"/>
-      <c r="M32" s="10" t="e"/>
-      <c r="N32" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O32" s="21" t="e"/>
+      <c r="E32" s="16" t="e"/>
+      <c r="F32" s="16" t="e"/>
+      <c r="G32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" s="18" t="e"/>
+      <c r="J32" s="18" t="e"/>
+      <c r="K32" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L32" s="18" t="e"/>
+      <c r="M32" s="18" t="e"/>
+      <c r="N32" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O32" s="19" t="e"/>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
       <c r="A33" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="20" t="e"/>
       <c r="C33" s="20" t="e"/>
@@ -1369,81 +1351,77 @@
       <c r="F33" s="20" t="e"/>
       <c r="G33" s="20" t="e"/>
       <c r="H33" s="9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I33" s="10" t="e"/>
       <c r="J33" s="10" t="e"/>
       <c r="K33" s="9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L33" s="10" t="e"/>
       <c r="M33" s="10" t="e"/>
       <c r="N33" s="9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O33" s="21" t="e"/>
     </row>
-    <row r="34" ht="22" customHeight="true">
-      <c r="A34" s="16" t="s">
+    <row r="34" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="20" t="e"/>
+      <c r="C34" s="20" t="e"/>
+      <c r="D34" s="20" t="e"/>
+      <c r="E34" s="20" t="e"/>
+      <c r="F34" s="20" t="e"/>
+      <c r="G34" s="20" t="e"/>
+      <c r="H34" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="10" t="e"/>
+      <c r="J34" s="10" t="e"/>
+      <c r="K34" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" s="10" t="e"/>
+      <c r="M34" s="10" t="e"/>
+      <c r="N34" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" s="21" t="e"/>
+    </row>
+    <row r="35" ht="22" customHeight="true">
+      <c r="A35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="16" t="e"/>
-      <c r="C34" s="16" t="e"/>
-      <c r="D34" s="16" t="s">
+      <c r="B35" s="16" t="e"/>
+      <c r="C35" s="16" t="e"/>
+      <c r="D35" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="16" t="e"/>
-      <c r="F34" s="16" t="e"/>
-      <c r="G34" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="I34" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" s="18" t="e"/>
-      <c r="K34" s="17" t="n">
+      <c r="E35" s="16" t="e"/>
+      <c r="F35" s="16" t="e"/>
+      <c r="G35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L34" s="18" t="e"/>
-      <c r="M34" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" s="17" t="n">
+      <c r="I35" s="18" t="e"/>
+      <c r="J35" s="18" t="e"/>
+      <c r="K35" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="O34" s="19" t="e"/>
-    </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="20" t="e"/>
-      <c r="C35" s="20" t="e"/>
-      <c r="D35" s="20" t="e"/>
-      <c r="E35" s="20" t="e"/>
-      <c r="F35" s="20" t="e"/>
-      <c r="G35" s="20" t="e"/>
-      <c r="H35" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" s="10" t="e"/>
-      <c r="J35" s="10" t="e"/>
-      <c r="K35" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L35" s="10" t="e"/>
-      <c r="M35" s="10" t="e"/>
-      <c r="N35" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" s="21" t="e"/>
+      <c r="L35" s="18" t="e"/>
+      <c r="M35" s="18" t="e"/>
+      <c r="N35" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" s="19" t="e"/>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
       <c r="A36" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="20" t="e"/>
       <c r="C36" s="20" t="e"/>
@@ -1452,25 +1430,21 @@
       <c r="F36" s="20" t="e"/>
       <c r="G36" s="20" t="e"/>
       <c r="H36" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I36" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I36" s="10" t="e"/>
       <c r="J36" s="10" t="e"/>
       <c r="K36" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L36" s="10" t="e"/>
-      <c r="M36" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M36" s="10" t="e"/>
       <c r="N36" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O36" s="21" t="e"/>
     </row>
-    <row r="37" ht="22" customHeight="true">
+    <row r="37" ht="11" customHeight="true">
       <c r="A37" s="16" t="s">
         <v>46</v>
       </c>
@@ -1485,23 +1459,23 @@
         <v>25</v>
       </c>
       <c r="H37" s="17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I37" s="18" t="e"/>
       <c r="J37" s="18" t="e"/>
       <c r="K37" s="17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L37" s="18" t="e"/>
       <c r="M37" s="18" t="e"/>
       <c r="N37" s="17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O37" s="19" t="e"/>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="1">
       <c r="A38" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="20" t="e"/>
       <c r="C38" s="20" t="e"/>
@@ -1510,17 +1484,17 @@
       <c r="F38" s="20" t="e"/>
       <c r="G38" s="20" t="e"/>
       <c r="H38" s="9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I38" s="10" t="e"/>
       <c r="J38" s="10" t="e"/>
       <c r="K38" s="9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L38" s="10" t="e"/>
       <c r="M38" s="10" t="e"/>
       <c r="N38" s="9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O38" s="21" t="e"/>
     </row>
@@ -1539,23 +1513,23 @@
         <v>25</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="I39" s="18" t="e"/>
       <c r="J39" s="18" t="e"/>
       <c r="K39" s="17" t="n">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="L39" s="18" t="e"/>
       <c r="M39" s="18" t="e"/>
       <c r="N39" s="17" t="n">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="O39" s="19" t="e"/>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
       <c r="A40" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B40" s="20" t="e"/>
       <c r="C40" s="20" t="e"/>
@@ -1564,77 +1538,77 @@
       <c r="F40" s="20" t="e"/>
       <c r="G40" s="20" t="e"/>
       <c r="H40" s="9" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I40" s="10" t="e"/>
       <c r="J40" s="10" t="e"/>
       <c r="K40" s="9" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="L40" s="10" t="e"/>
       <c r="M40" s="10" t="e"/>
       <c r="N40" s="9" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O40" s="21" t="e"/>
     </row>
-    <row r="41" ht="11" customHeight="true">
-      <c r="A41" s="16" t="s">
+    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A41" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="20" t="e"/>
+      <c r="C41" s="20" t="e"/>
+      <c r="D41" s="20" t="e"/>
+      <c r="E41" s="20" t="e"/>
+      <c r="F41" s="20" t="e"/>
+      <c r="G41" s="20" t="e"/>
+      <c r="H41" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="I41" s="10" t="e"/>
+      <c r="J41" s="10" t="e"/>
+      <c r="K41" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="L41" s="10" t="e"/>
+      <c r="M41" s="10" t="e"/>
+      <c r="N41" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="O41" s="21" t="e"/>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="16" t="e"/>
-      <c r="C41" s="16" t="e"/>
-      <c r="D41" s="16" t="s">
+      <c r="B42" s="16" t="e"/>
+      <c r="C42" s="16" t="e"/>
+      <c r="D42" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="16" t="e"/>
-      <c r="F41" s="16" t="e"/>
-      <c r="G41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="17" t="n">
-        <v>236</v>
-      </c>
-      <c r="I41" s="18" t="e"/>
-      <c r="J41" s="18" t="e"/>
-      <c r="K41" s="17" t="n">
-        <v>236</v>
-      </c>
-      <c r="L41" s="18" t="e"/>
-      <c r="M41" s="18" t="e"/>
-      <c r="N41" s="17" t="n">
-        <v>236</v>
-      </c>
-      <c r="O41" s="19" t="e"/>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A42" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="20" t="e"/>
-      <c r="C42" s="20" t="e"/>
-      <c r="D42" s="20" t="e"/>
-      <c r="E42" s="20" t="e"/>
-      <c r="F42" s="20" t="e"/>
-      <c r="G42" s="20" t="e"/>
-      <c r="H42" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="I42" s="10" t="e"/>
-      <c r="J42" s="10" t="e"/>
-      <c r="K42" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="L42" s="10" t="e"/>
-      <c r="M42" s="10" t="e"/>
-      <c r="N42" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="O42" s="21" t="e"/>
+      <c r="E42" s="16" t="e"/>
+      <c r="F42" s="16" t="e"/>
+      <c r="G42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="I42" s="18" t="e"/>
+      <c r="J42" s="18" t="e"/>
+      <c r="K42" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="L42" s="18" t="e"/>
+      <c r="M42" s="18" t="e"/>
+      <c r="N42" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="O42" s="19" t="e"/>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="1">
       <c r="A43" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="20" t="e"/>
       <c r="C43" s="20" t="e"/>
@@ -1643,21 +1617,21 @@
       <c r="F43" s="20" t="e"/>
       <c r="G43" s="20" t="e"/>
       <c r="H43" s="9" t="n">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="I43" s="10" t="e"/>
       <c r="J43" s="10" t="e"/>
       <c r="K43" s="9" t="n">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="L43" s="10" t="e"/>
       <c r="M43" s="10" t="e"/>
       <c r="N43" s="9" t="n">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="O43" s="21" t="e"/>
     </row>
-    <row r="44" ht="11" customHeight="true">
+    <row r="44" ht="22" customHeight="true">
       <c r="A44" s="16" t="s">
         <v>52</v>
       </c>
@@ -1672,23 +1646,23 @@
         <v>25</v>
       </c>
       <c r="H44" s="17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="18" t="e"/>
       <c r="J44" s="18" t="e"/>
       <c r="K44" s="17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L44" s="18" t="e"/>
       <c r="M44" s="18" t="e"/>
       <c r="N44" s="17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O44" s="19" t="e"/>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
       <c r="A45" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="20" t="e"/>
       <c r="C45" s="20" t="e"/>
@@ -1697,17 +1671,17 @@
       <c r="F45" s="20" t="e"/>
       <c r="G45" s="20" t="e"/>
       <c r="H45" s="9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I45" s="10" t="e"/>
       <c r="J45" s="10" t="e"/>
       <c r="K45" s="9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L45" s="10" t="e"/>
       <c r="M45" s="10" t="e"/>
       <c r="N45" s="9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O45" s="21" t="e"/>
     </row>
@@ -1726,27 +1700,23 @@
         <v>25</v>
       </c>
       <c r="H46" s="17" t="n">
-        <v>52</v>
-      </c>
-      <c r="I46" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I46" s="18" t="e"/>
       <c r="J46" s="18" t="e"/>
       <c r="K46" s="17" t="n">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="L46" s="18" t="e"/>
-      <c r="M46" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M46" s="18" t="e"/>
       <c r="N46" s="17" t="n">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="O46" s="19" t="e"/>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
       <c r="A47" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B47" s="20" t="e"/>
       <c r="C47" s="20" t="e"/>
@@ -1755,81 +1725,77 @@
       <c r="F47" s="20" t="e"/>
       <c r="G47" s="20" t="e"/>
       <c r="H47" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="I47" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I47" s="10" t="e"/>
       <c r="J47" s="10" t="e"/>
       <c r="K47" s="9" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="L47" s="10" t="e"/>
-      <c r="M47" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M47" s="10" t="e"/>
       <c r="N47" s="9" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="O47" s="21" t="e"/>
     </row>
-    <row r="48" ht="22" customHeight="true">
-      <c r="A48" s="16" t="s">
+    <row r="48" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A48" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="20" t="e"/>
+      <c r="C48" s="20" t="e"/>
+      <c r="D48" s="20" t="e"/>
+      <c r="E48" s="20" t="e"/>
+      <c r="F48" s="20" t="e"/>
+      <c r="G48" s="20" t="e"/>
+      <c r="H48" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="I48" s="10" t="e"/>
+      <c r="J48" s="10" t="e"/>
+      <c r="K48" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="L48" s="10" t="e"/>
+      <c r="M48" s="10" t="e"/>
+      <c r="N48" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="O48" s="21" t="e"/>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="16" t="e"/>
-      <c r="C48" s="16" t="e"/>
-      <c r="D48" s="16" t="s">
+      <c r="B49" s="16" t="e"/>
+      <c r="C49" s="16" t="e"/>
+      <c r="D49" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="16" t="e"/>
-      <c r="F48" s="16" t="e"/>
-      <c r="G48" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="I48" s="18" t="e"/>
-      <c r="J48" s="18" t="e"/>
-      <c r="K48" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="L48" s="18" t="e"/>
-      <c r="M48" s="18" t="e"/>
-      <c r="N48" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="O48" s="19" t="e"/>
-    </row>
-    <row r="49" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="20" t="e"/>
-      <c r="C49" s="20" t="e"/>
-      <c r="D49" s="20" t="e"/>
-      <c r="E49" s="20" t="e"/>
-      <c r="F49" s="20" t="e"/>
-      <c r="G49" s="20" t="e"/>
-      <c r="H49" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" s="10" t="e"/>
-      <c r="J49" s="10" t="e"/>
-      <c r="K49" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L49" s="10" t="e"/>
-      <c r="M49" s="10" t="e"/>
-      <c r="N49" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" s="21" t="e"/>
+      <c r="E49" s="16" t="e"/>
+      <c r="F49" s="16" t="e"/>
+      <c r="G49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="17" t="n">
+        <v>141</v>
+      </c>
+      <c r="I49" s="18" t="e"/>
+      <c r="J49" s="18" t="e"/>
+      <c r="K49" s="17" t="n">
+        <v>141</v>
+      </c>
+      <c r="L49" s="18" t="e"/>
+      <c r="M49" s="18" t="e"/>
+      <c r="N49" s="17" t="n">
+        <v>141</v>
+      </c>
+      <c r="O49" s="19" t="e"/>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
       <c r="A50" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B50" s="20" t="e"/>
       <c r="C50" s="20" t="e"/>
@@ -1838,77 +1804,77 @@
       <c r="F50" s="20" t="e"/>
       <c r="G50" s="20" t="e"/>
       <c r="H50" s="9" t="n">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="I50" s="10" t="e"/>
       <c r="J50" s="10" t="e"/>
       <c r="K50" s="9" t="n">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="L50" s="10" t="e"/>
       <c r="M50" s="10" t="e"/>
       <c r="N50" s="9" t="n">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="O50" s="21" t="e"/>
     </row>
-    <row r="51" ht="11" customHeight="true">
-      <c r="A51" s="16" t="s">
+    <row r="51" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A51" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="20" t="e"/>
+      <c r="C51" s="20" t="e"/>
+      <c r="D51" s="20" t="e"/>
+      <c r="E51" s="20" t="e"/>
+      <c r="F51" s="20" t="e"/>
+      <c r="G51" s="20" t="e"/>
+      <c r="H51" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="I51" s="10" t="e"/>
+      <c r="J51" s="10" t="e"/>
+      <c r="K51" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="L51" s="10" t="e"/>
+      <c r="M51" s="10" t="e"/>
+      <c r="N51" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="O51" s="21" t="e"/>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="16" t="e"/>
-      <c r="C51" s="16" t="e"/>
-      <c r="D51" s="16" t="s">
+      <c r="B52" s="16" t="e"/>
+      <c r="C52" s="16" t="e"/>
+      <c r="D52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="16" t="e"/>
-      <c r="F51" s="16" t="e"/>
-      <c r="G51" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="17" t="n">
-        <v>141</v>
-      </c>
-      <c r="I51" s="18" t="e"/>
-      <c r="J51" s="18" t="e"/>
-      <c r="K51" s="17" t="n">
-        <v>141</v>
-      </c>
-      <c r="L51" s="18" t="e"/>
-      <c r="M51" s="18" t="e"/>
-      <c r="N51" s="17" t="n">
-        <v>141</v>
-      </c>
-      <c r="O51" s="19" t="e"/>
-    </row>
-    <row r="52" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="20" t="e"/>
-      <c r="C52" s="20" t="e"/>
-      <c r="D52" s="20" t="e"/>
-      <c r="E52" s="20" t="e"/>
-      <c r="F52" s="20" t="e"/>
-      <c r="G52" s="20" t="e"/>
-      <c r="H52" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="I52" s="10" t="e"/>
-      <c r="J52" s="10" t="e"/>
-      <c r="K52" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="L52" s="10" t="e"/>
-      <c r="M52" s="10" t="e"/>
-      <c r="N52" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="O52" s="21" t="e"/>
+      <c r="E52" s="16" t="e"/>
+      <c r="F52" s="16" t="e"/>
+      <c r="G52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="17" t="n">
+        <v>109</v>
+      </c>
+      <c r="I52" s="18" t="e"/>
+      <c r="J52" s="18" t="e"/>
+      <c r="K52" s="17" t="n">
+        <v>109</v>
+      </c>
+      <c r="L52" s="18" t="e"/>
+      <c r="M52" s="18" t="e"/>
+      <c r="N52" s="17" t="n">
+        <v>109</v>
+      </c>
+      <c r="O52" s="19" t="e"/>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="1">
       <c r="A53" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B53" s="20" t="e"/>
       <c r="C53" s="20" t="e"/>
@@ -1917,21 +1883,21 @@
       <c r="F53" s="20" t="e"/>
       <c r="G53" s="20" t="e"/>
       <c r="H53" s="9" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I53" s="10" t="e"/>
       <c r="J53" s="10" t="e"/>
       <c r="K53" s="9" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L53" s="10" t="e"/>
       <c r="M53" s="10" t="e"/>
       <c r="N53" s="9" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O53" s="21" t="e"/>
     </row>
-    <row r="54" ht="22" customHeight="true">
+    <row r="54" ht="11" customHeight="true">
       <c r="A54" s="16" t="s">
         <v>60</v>
       </c>
@@ -1946,23 +1912,23 @@
         <v>25</v>
       </c>
       <c r="H54" s="17" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="I54" s="18" t="e"/>
       <c r="J54" s="18" t="e"/>
       <c r="K54" s="17" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="L54" s="18" t="e"/>
       <c r="M54" s="18" t="e"/>
       <c r="N54" s="17" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="O54" s="19" t="e"/>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
       <c r="A55" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="20" t="e"/>
       <c r="C55" s="20" t="e"/>
@@ -1971,21 +1937,21 @@
       <c r="F55" s="20" t="e"/>
       <c r="G55" s="20" t="e"/>
       <c r="H55" s="9" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="I55" s="10" t="e"/>
       <c r="J55" s="10" t="e"/>
       <c r="K55" s="9" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="L55" s="10" t="e"/>
       <c r="M55" s="10" t="e"/>
       <c r="N55" s="9" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="O55" s="21" t="e"/>
     </row>
-    <row r="56" ht="11" customHeight="true">
+    <row r="56" ht="22" customHeight="true">
       <c r="A56" s="16" t="s">
         <v>62</v>
       </c>
@@ -2000,23 +1966,23 @@
         <v>25</v>
       </c>
       <c r="H56" s="17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I56" s="18" t="e"/>
       <c r="J56" s="18" t="e"/>
       <c r="K56" s="17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L56" s="18" t="e"/>
       <c r="M56" s="18" t="e"/>
       <c r="N56" s="17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O56" s="19" t="e"/>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
       <c r="A57" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B57" s="20" t="e"/>
       <c r="C57" s="20" t="e"/>
@@ -2025,21 +1991,21 @@
       <c r="F57" s="20" t="e"/>
       <c r="G57" s="20" t="e"/>
       <c r="H57" s="9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I57" s="10" t="e"/>
       <c r="J57" s="10" t="e"/>
       <c r="K57" s="9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L57" s="10" t="e"/>
       <c r="M57" s="10" t="e"/>
       <c r="N57" s="9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O57" s="21" t="e"/>
     </row>
-    <row r="58" ht="22" customHeight="true">
+    <row r="58" ht="11" customHeight="true">
       <c r="A58" s="16" t="s">
         <v>64</v>
       </c>
@@ -2054,23 +2020,27 @@
         <v>25</v>
       </c>
       <c r="H58" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="I58" s="18" t="e"/>
+        <v>102</v>
+      </c>
+      <c r="I58" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J58" s="18" t="e"/>
       <c r="K58" s="17" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="L58" s="18" t="e"/>
-      <c r="M58" s="18" t="e"/>
+      <c r="M58" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N58" s="17" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="O58" s="19" t="e"/>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
       <c r="A59" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B59" s="20" t="e"/>
       <c r="C59" s="20" t="e"/>
@@ -2079,81 +2049,81 @@
       <c r="F59" s="20" t="e"/>
       <c r="G59" s="20" t="e"/>
       <c r="H59" s="9" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I59" s="10" t="e"/>
       <c r="J59" s="10" t="e"/>
       <c r="K59" s="9" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="L59" s="10" t="e"/>
       <c r="M59" s="10" t="e"/>
       <c r="N59" s="9" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="O59" s="21" t="e"/>
     </row>
-    <row r="60" ht="11" customHeight="true">
-      <c r="A60" s="16" t="s">
+    <row r="60" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="20" t="e"/>
+      <c r="C60" s="20" t="e"/>
+      <c r="D60" s="20" t="e"/>
+      <c r="E60" s="20" t="e"/>
+      <c r="F60" s="20" t="e"/>
+      <c r="G60" s="20" t="e"/>
+      <c r="H60" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="I60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="10" t="e"/>
+      <c r="K60" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="L60" s="10" t="e"/>
+      <c r="M60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="O60" s="21" t="e"/>
+    </row>
+    <row r="61" ht="11" customHeight="true">
+      <c r="A61" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="16" t="e"/>
-      <c r="C60" s="16" t="e"/>
-      <c r="D60" s="16" t="s">
+      <c r="B61" s="16" t="e"/>
+      <c r="C61" s="16" t="e"/>
+      <c r="D61" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="16" t="e"/>
-      <c r="F60" s="16" t="e"/>
-      <c r="G60" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="17" t="n">
-        <v>101</v>
-      </c>
-      <c r="I60" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="18" t="e"/>
-      <c r="K60" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L60" s="18" t="e"/>
-      <c r="M60" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="O60" s="19" t="e"/>
-    </row>
-    <row r="61" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A61" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="20" t="e"/>
-      <c r="C61" s="20" t="e"/>
-      <c r="D61" s="20" t="e"/>
-      <c r="E61" s="20" t="e"/>
-      <c r="F61" s="20" t="e"/>
-      <c r="G61" s="20" t="e"/>
-      <c r="H61" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I61" s="10" t="e"/>
-      <c r="J61" s="10" t="e"/>
-      <c r="K61" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L61" s="10" t="e"/>
-      <c r="M61" s="10" t="e"/>
-      <c r="N61" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O61" s="21" t="e"/>
+      <c r="E61" s="16" t="e"/>
+      <c r="F61" s="16" t="e"/>
+      <c r="G61" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I61" s="18" t="e"/>
+      <c r="J61" s="18" t="e"/>
+      <c r="K61" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="L61" s="18" t="e"/>
+      <c r="M61" s="18" t="e"/>
+      <c r="N61" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="O61" s="19" t="e"/>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
       <c r="A62" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B62" s="20" t="e"/>
       <c r="C62" s="20" t="e"/>
@@ -2162,21 +2132,17 @@
       <c r="F62" s="20" t="e"/>
       <c r="G62" s="20" t="e"/>
       <c r="H62" s="9" t="n">
-        <v>94</v>
-      </c>
-      <c r="I62" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I62" s="10" t="e"/>
       <c r="J62" s="10" t="e"/>
       <c r="K62" s="9" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="L62" s="10" t="e"/>
-      <c r="M62" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M62" s="10" t="e"/>
       <c r="N62" s="9" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="O62" s="21" t="e"/>
     </row>
@@ -2195,23 +2161,23 @@
         <v>25</v>
       </c>
       <c r="H63" s="17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I63" s="18" t="e"/>
       <c r="J63" s="18" t="e"/>
       <c r="K63" s="17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L63" s="18" t="e"/>
       <c r="M63" s="18" t="e"/>
       <c r="N63" s="17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O63" s="19" t="e"/>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
       <c r="A64" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B64" s="20" t="e"/>
       <c r="C64" s="20" t="e"/>
@@ -2220,17 +2186,17 @@
       <c r="F64" s="20" t="e"/>
       <c r="G64" s="20" t="e"/>
       <c r="H64" s="9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I64" s="10" t="e"/>
       <c r="J64" s="10" t="e"/>
       <c r="K64" s="9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L64" s="10" t="e"/>
       <c r="M64" s="10" t="e"/>
       <c r="N64" s="9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O64" s="21" t="e"/>
     </row>
@@ -2249,23 +2215,27 @@
         <v>25</v>
       </c>
       <c r="H65" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="I65" s="18" t="e"/>
+        <v>33</v>
+      </c>
+      <c r="I65" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="J65" s="18" t="e"/>
       <c r="K65" s="17" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L65" s="18" t="e"/>
-      <c r="M65" s="18" t="e"/>
+      <c r="M65" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="N65" s="17" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O65" s="19" t="e"/>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="1">
       <c r="A66" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" s="20" t="e"/>
       <c r="C66" s="20" t="e"/>
@@ -2274,17 +2244,21 @@
       <c r="F66" s="20" t="e"/>
       <c r="G66" s="20" t="e"/>
       <c r="H66" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I66" s="10" t="e"/>
+        <v>33</v>
+      </c>
+      <c r="I66" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J66" s="10" t="e"/>
       <c r="K66" s="9" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L66" s="10" t="e"/>
-      <c r="M66" s="10" t="e"/>
+      <c r="M66" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N66" s="9" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O66" s="21" t="e"/>
     </row>
@@ -2303,23 +2277,23 @@
         <v>25</v>
       </c>
       <c r="H67" s="17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I67" s="18" t="e"/>
       <c r="J67" s="18" t="e"/>
       <c r="K67" s="17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L67" s="18" t="e"/>
       <c r="M67" s="18" t="e"/>
       <c r="N67" s="17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O67" s="19" t="e"/>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
       <c r="A68" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68" s="20" t="e"/>
       <c r="C68" s="20" t="e"/>
@@ -2328,17 +2302,17 @@
       <c r="F68" s="20" t="e"/>
       <c r="G68" s="20" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="L68" s="10" t="e"/>
       <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O68" s="21" t="e"/>
     </row>
@@ -2357,23 +2331,23 @@
         <v>25</v>
       </c>
       <c r="H69" s="17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I69" s="18" t="e"/>
       <c r="J69" s="18" t="e"/>
       <c r="K69" s="17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L69" s="18" t="e"/>
       <c r="M69" s="18" t="e"/>
       <c r="N69" s="17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O69" s="19" t="e"/>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
       <c r="A70" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B70" s="20" t="e"/>
       <c r="C70" s="20" t="e"/>
@@ -2382,21 +2356,21 @@
       <c r="F70" s="20" t="e"/>
       <c r="G70" s="20" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O70" s="21" t="e"/>
     </row>
-    <row r="71" ht="11" customHeight="true">
+    <row r="71" ht="22" customHeight="true">
       <c r="A71" s="16" t="s">
         <v>76</v>
       </c>
@@ -2427,7 +2401,7 @@
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="1">
       <c r="A72" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B72" s="20" t="e"/>
       <c r="C72" s="20" t="e"/>
@@ -2465,23 +2439,23 @@
         <v>25</v>
       </c>
       <c r="H73" s="17" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I73" s="18" t="e"/>
       <c r="J73" s="18" t="e"/>
       <c r="K73" s="17" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="L73" s="18" t="e"/>
       <c r="M73" s="18" t="e"/>
       <c r="N73" s="17" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="O73" s="19" t="e"/>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
       <c r="A74" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B74" s="20" t="e"/>
       <c r="C74" s="20" t="e"/>
@@ -2490,77 +2464,81 @@
       <c r="F74" s="20" t="e"/>
       <c r="G74" s="20" t="e"/>
       <c r="H74" s="9" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I74" s="10" t="e"/>
       <c r="J74" s="10" t="e"/>
       <c r="K74" s="9" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L74" s="10" t="e"/>
       <c r="M74" s="10" t="e"/>
       <c r="N74" s="9" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="O74" s="21" t="e"/>
     </row>
-    <row r="75" ht="22" customHeight="true">
-      <c r="A75" s="16" t="s">
+    <row r="75" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A75" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="20" t="e"/>
+      <c r="C75" s="20" t="e"/>
+      <c r="D75" s="20" t="e"/>
+      <c r="E75" s="20" t="e"/>
+      <c r="F75" s="20" t="e"/>
+      <c r="G75" s="20" t="e"/>
+      <c r="H75" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="I75" s="10" t="e"/>
+      <c r="J75" s="10" t="e"/>
+      <c r="K75" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="L75" s="10" t="e"/>
+      <c r="M75" s="10" t="e"/>
+      <c r="N75" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="O75" s="21" t="e"/>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="16" t="e"/>
-      <c r="C75" s="16" t="e"/>
-      <c r="D75" s="16" t="s">
+      <c r="B76" s="16" t="e"/>
+      <c r="C76" s="16" t="e"/>
+      <c r="D76" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="16" t="e"/>
-      <c r="F75" s="16" t="e"/>
-      <c r="G75" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="I75" s="18" t="e"/>
-      <c r="J75" s="18" t="e"/>
-      <c r="K75" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="L75" s="18" t="e"/>
-      <c r="M75" s="18" t="e"/>
-      <c r="N75" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="O75" s="19" t="e"/>
-    </row>
-    <row r="76" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A76" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="20" t="e"/>
-      <c r="C76" s="20" t="e"/>
-      <c r="D76" s="20" t="e"/>
-      <c r="E76" s="20" t="e"/>
-      <c r="F76" s="20" t="e"/>
-      <c r="G76" s="20" t="e"/>
-      <c r="H76" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I76" s="10" t="e"/>
-      <c r="J76" s="10" t="e"/>
-      <c r="K76" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="L76" s="10" t="e"/>
-      <c r="M76" s="10" t="e"/>
-      <c r="N76" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O76" s="21" t="e"/>
+      <c r="E76" s="16" t="e"/>
+      <c r="F76" s="16" t="e"/>
+      <c r="G76" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="17" t="n">
+        <v>113</v>
+      </c>
+      <c r="I76" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="18" t="e"/>
+      <c r="K76" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="L76" s="18" t="e"/>
+      <c r="M76" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="O76" s="19" t="e"/>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
       <c r="A77" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B77" s="20" t="e"/>
       <c r="C77" s="20" t="e"/>
@@ -2569,106 +2547,110 @@
       <c r="F77" s="20" t="e"/>
       <c r="G77" s="20" t="e"/>
       <c r="H77" s="9" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="I77" s="10" t="e"/>
       <c r="J77" s="10" t="e"/>
       <c r="K77" s="9" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="L77" s="10" t="e"/>
       <c r="M77" s="10" t="e"/>
       <c r="N77" s="9" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="O77" s="21" t="e"/>
     </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="16" t="s">
+    <row r="78" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A78" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="20" t="e"/>
+      <c r="C78" s="20" t="e"/>
+      <c r="D78" s="20" t="e"/>
+      <c r="E78" s="20" t="e"/>
+      <c r="F78" s="20" t="e"/>
+      <c r="G78" s="20" t="e"/>
+      <c r="H78" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="10" t="e"/>
+      <c r="K78" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="L78" s="10" t="e"/>
+      <c r="M78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="O78" s="21" t="e"/>
+    </row>
+    <row r="79" ht="11" customHeight="true">
+      <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="16" t="e"/>
-      <c r="C78" s="16" t="e"/>
-      <c r="D78" s="16" t="s">
+      <c r="B79" s="16" t="e"/>
+      <c r="C79" s="16" t="e"/>
+      <c r="D79" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E78" s="16" t="e"/>
-      <c r="F78" s="16" t="e"/>
-      <c r="G78" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="17" t="n">
+      <c r="E79" s="16" t="e"/>
+      <c r="F79" s="16" t="e"/>
+      <c r="G79" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="17" t="n">
+        <v>109</v>
+      </c>
+      <c r="I79" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I78" s="18" t="e"/>
-      <c r="J78" s="18" t="e"/>
-      <c r="K78" s="17" t="n">
+      <c r="J79" s="18" t="e"/>
+      <c r="K79" s="17" t="n">
+        <v>106</v>
+      </c>
+      <c r="L79" s="18" t="e"/>
+      <c r="M79" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="L78" s="18" t="e"/>
-      <c r="M78" s="18" t="e"/>
-      <c r="N78" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O78" s="19" t="e"/>
-    </row>
-    <row r="79" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A79" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="20" t="e"/>
-      <c r="C79" s="20" t="e"/>
-      <c r="D79" s="20" t="e"/>
-      <c r="E79" s="20" t="e"/>
-      <c r="F79" s="20" t="e"/>
-      <c r="G79" s="20" t="e"/>
-      <c r="H79" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I79" s="10" t="e"/>
-      <c r="J79" s="10" t="e"/>
-      <c r="K79" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L79" s="10" t="e"/>
-      <c r="M79" s="10" t="e"/>
-      <c r="N79" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O79" s="21" t="e"/>
-    </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="16" t="e"/>
-      <c r="C80" s="16" t="e"/>
-      <c r="D80" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" s="16" t="e"/>
-      <c r="F80" s="16" t="e"/>
-      <c r="G80" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="18" t="e"/>
-      <c r="J80" s="18" t="e"/>
-      <c r="K80" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L80" s="18" t="e"/>
-      <c r="M80" s="18" t="e"/>
-      <c r="N80" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O80" s="19" t="e"/>
+      <c r="N79" s="17" t="n">
+        <v>106</v>
+      </c>
+      <c r="O79" s="19" t="e"/>
+    </row>
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A80" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="20" t="e"/>
+      <c r="C80" s="20" t="e"/>
+      <c r="D80" s="20" t="e"/>
+      <c r="E80" s="20" t="e"/>
+      <c r="F80" s="20" t="e"/>
+      <c r="G80" s="20" t="e"/>
+      <c r="H80" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I80" s="10" t="e"/>
+      <c r="J80" s="10" t="e"/>
+      <c r="K80" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L80" s="10" t="e"/>
+      <c r="M80" s="10" t="e"/>
+      <c r="N80" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O80" s="21" t="e"/>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
       <c r="A81" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B81" s="20" t="e"/>
       <c r="C81" s="20" t="e"/>
@@ -2677,28 +2659,32 @@
       <c r="F81" s="20" t="e"/>
       <c r="G81" s="20" t="e"/>
       <c r="H81" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="I81" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I81" s="10" t="e"/>
       <c r="J81" s="10" t="e"/>
       <c r="K81" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="L81" s="10" t="e"/>
+      <c r="M81" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
       <c r="N81" s="9" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="O81" s="21" t="e"/>
     </row>
-    <row r="82" ht="11" customHeight="true">
+    <row r="82" ht="22" customHeight="true">
       <c r="A82" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82" s="16" t="e"/>
       <c r="C82" s="16" t="e"/>
       <c r="D82" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E82" s="16" t="e"/>
       <c r="F82" s="16" t="e"/>
@@ -2706,23 +2692,27 @@
         <v>25</v>
       </c>
       <c r="H82" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="I82" s="18" t="e"/>
+        <v>112</v>
+      </c>
+      <c r="I82" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="J82" s="18" t="e"/>
       <c r="K82" s="17" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L82" s="18" t="e"/>
-      <c r="M82" s="18" t="e"/>
+      <c r="M82" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="N82" s="17" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O82" s="19" t="e"/>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B83" s="20" t="e"/>
       <c r="C83" s="20" t="e"/>
@@ -2731,23 +2721,23 @@
       <c r="F83" s="20" t="e"/>
       <c r="G83" s="20" t="e"/>
       <c r="H83" s="9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" s="10" t="e"/>
       <c r="J83" s="10" t="e"/>
       <c r="K83" s="9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L83" s="10" t="e"/>
       <c r="M83" s="10" t="e"/>
       <c r="N83" s="9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O83" s="21" t="e"/>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B84" s="20" t="e"/>
       <c r="C84" s="20" t="e"/>
@@ -2758,26 +2748,30 @@
       <c r="H84" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="I84" s="10" t="e"/>
+      <c r="I84" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="J84" s="10" t="e"/>
       <c r="K84" s="9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L84" s="10" t="e"/>
-      <c r="M84" s="10" t="e"/>
+      <c r="M84" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="N84" s="9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O84" s="21" t="e"/>
     </row>
     <row r="85" ht="11" customHeight="true">
       <c r="A85" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" s="16" t="e"/>
       <c r="C85" s="16" t="e"/>
       <c r="D85" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E85" s="16" t="e"/>
       <c r="F85" s="16" t="e"/>
@@ -2785,23 +2779,23 @@
         <v>25</v>
       </c>
       <c r="H85" s="17" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I85" s="18" t="e"/>
       <c r="J85" s="18" t="e"/>
       <c r="K85" s="17" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L85" s="18" t="e"/>
       <c r="M85" s="18" t="e"/>
       <c r="N85" s="17" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O85" s="19" t="e"/>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" s="20" t="e"/>
       <c r="C86" s="20" t="e"/>
@@ -2810,23 +2804,23 @@
       <c r="F86" s="20" t="e"/>
       <c r="G86" s="20" t="e"/>
       <c r="H86" s="9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I86" s="10" t="e"/>
       <c r="J86" s="10" t="e"/>
       <c r="K86" s="9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L86" s="10" t="e"/>
       <c r="M86" s="10" t="e"/>
       <c r="N86" s="9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O86" s="21" t="e"/>
     </row>
     <row r="87" ht="11" customHeight="true" outlineLevel="1">
       <c r="A87" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B87" s="20" t="e"/>
       <c r="C87" s="20" t="e"/>
@@ -2835,28 +2829,28 @@
       <c r="F87" s="20" t="e"/>
       <c r="G87" s="20" t="e"/>
       <c r="H87" s="9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I87" s="10" t="e"/>
       <c r="J87" s="10" t="e"/>
       <c r="K87" s="9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L87" s="10" t="e"/>
       <c r="M87" s="10" t="e"/>
       <c r="N87" s="9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O87" s="21" t="e"/>
     </row>
-    <row r="88" ht="22" customHeight="true">
+    <row r="88" ht="11" customHeight="true">
       <c r="A88" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B88" s="16" t="e"/>
       <c r="C88" s="16" t="e"/>
       <c r="D88" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E88" s="16" t="e"/>
       <c r="F88" s="16" t="e"/>
@@ -2864,27 +2858,27 @@
         <v>25</v>
       </c>
       <c r="H88" s="17" t="n">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="I88" s="17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J88" s="18" t="e"/>
       <c r="K88" s="17" t="n">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="L88" s="18" t="e"/>
       <c r="M88" s="17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N88" s="17" t="n">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="O88" s="19" t="e"/>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
       <c r="A89" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B89" s="20" t="e"/>
       <c r="C89" s="20" t="e"/>
@@ -2893,27 +2887,23 @@
       <c r="F89" s="20" t="e"/>
       <c r="G89" s="20" t="e"/>
       <c r="H89" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I89" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I89" s="10" t="e"/>
       <c r="J89" s="10" t="e"/>
       <c r="K89" s="9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L89" s="10" t="e"/>
-      <c r="M89" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="M89" s="10" t="e"/>
       <c r="N89" s="9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O89" s="21" t="e"/>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
       <c r="A90" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B90" s="20" t="e"/>
       <c r="C90" s="20" t="e"/>
@@ -2922,32 +2912,32 @@
       <c r="F90" s="20" t="e"/>
       <c r="G90" s="20" t="e"/>
       <c r="H90" s="9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I90" s="9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J90" s="10" t="e"/>
       <c r="K90" s="9" t="n">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="L90" s="10" t="e"/>
       <c r="M90" s="9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N90" s="9" t="n">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="O90" s="21" t="e"/>
     </row>
     <row r="91" ht="11" customHeight="true">
       <c r="A91" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" s="16" t="e"/>
       <c r="C91" s="16" t="e"/>
       <c r="D91" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E91" s="16" t="e"/>
       <c r="F91" s="16" t="e"/>
@@ -2955,23 +2945,27 @@
         <v>25</v>
       </c>
       <c r="H91" s="17" t="n">
-        <v>128</v>
-      </c>
-      <c r="I91" s="18" t="e"/>
+        <v>200</v>
+      </c>
+      <c r="I91" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="J91" s="18" t="e"/>
       <c r="K91" s="17" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="L91" s="18" t="e"/>
-      <c r="M91" s="18" t="e"/>
+      <c r="M91" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="N91" s="17" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="O91" s="19" t="e"/>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
       <c r="A92" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" s="20" t="e"/>
       <c r="C92" s="20" t="e"/>
@@ -2980,23 +2974,23 @@
       <c r="F92" s="20" t="e"/>
       <c r="G92" s="20" t="e"/>
       <c r="H92" s="9" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I92" s="10" t="e"/>
       <c r="J92" s="10" t="e"/>
       <c r="K92" s="9" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L92" s="10" t="e"/>
       <c r="M92" s="10" t="e"/>
       <c r="N92" s="9" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O92" s="21" t="e"/>
     </row>
     <row r="93" ht="11" customHeight="true" outlineLevel="1">
       <c r="A93" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B93" s="20" t="e"/>
       <c r="C93" s="20" t="e"/>
@@ -3005,28 +2999,32 @@
       <c r="F93" s="20" t="e"/>
       <c r="G93" s="20" t="e"/>
       <c r="H93" s="9" t="n">
-        <v>109</v>
-      </c>
-      <c r="I93" s="10" t="e"/>
+        <v>196</v>
+      </c>
+      <c r="I93" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="J93" s="10" t="e"/>
       <c r="K93" s="9" t="n">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="L93" s="10" t="e"/>
-      <c r="M93" s="10" t="e"/>
+      <c r="M93" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="N93" s="9" t="n">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="O93" s="21" t="e"/>
     </row>
     <row r="94" ht="11" customHeight="true">
       <c r="A94" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="16" t="e"/>
       <c r="C94" s="16" t="e"/>
       <c r="D94" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E94" s="16" t="e"/>
       <c r="F94" s="16" t="e"/>
@@ -3034,23 +3032,27 @@
         <v>25</v>
       </c>
       <c r="H94" s="17" t="n">
-        <v>208</v>
-      </c>
-      <c r="I94" s="18" t="e"/>
+        <v>206</v>
+      </c>
+      <c r="I94" s="17" t="n">
+        <v>3</v>
+      </c>
       <c r="J94" s="18" t="e"/>
       <c r="K94" s="17" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L94" s="18" t="e"/>
-      <c r="M94" s="18" t="e"/>
+      <c r="M94" s="17" t="n">
+        <v>3</v>
+      </c>
       <c r="N94" s="17" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O94" s="19" t="e"/>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
       <c r="A95" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="20" t="e"/>
       <c r="C95" s="20" t="e"/>
@@ -3059,23 +3061,23 @@
       <c r="F95" s="20" t="e"/>
       <c r="G95" s="20" t="e"/>
       <c r="H95" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I95" s="10" t="e"/>
       <c r="J95" s="10" t="e"/>
       <c r="K95" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L95" s="10" t="e"/>
       <c r="M95" s="10" t="e"/>
       <c r="N95" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O95" s="21" t="e"/>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
       <c r="A96" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B96" s="20" t="e"/>
       <c r="C96" s="20" t="e"/>
@@ -3084,28 +3086,32 @@
       <c r="F96" s="20" t="e"/>
       <c r="G96" s="20" t="e"/>
       <c r="H96" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="I96" s="10" t="e"/>
+        <v>199</v>
+      </c>
+      <c r="I96" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J96" s="10" t="e"/>
       <c r="K96" s="9" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L96" s="10" t="e"/>
-      <c r="M96" s="10" t="e"/>
+      <c r="M96" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N96" s="9" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O96" s="21" t="e"/>
     </row>
     <row r="97" ht="11" customHeight="true">
       <c r="A97" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="16" t="e"/>
       <c r="C97" s="16" t="e"/>
       <c r="D97" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E97" s="16" t="e"/>
       <c r="F97" s="16" t="e"/>
@@ -3113,27 +3119,27 @@
         <v>25</v>
       </c>
       <c r="H97" s="17" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I97" s="17" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J97" s="18" t="e"/>
       <c r="K97" s="17" t="n">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="L97" s="18" t="e"/>
       <c r="M97" s="17" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N97" s="17" t="n">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="O97" s="19" t="e"/>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
       <c r="A98" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B98" s="20" t="e"/>
       <c r="C98" s="20" t="e"/>
@@ -3142,23 +3148,23 @@
       <c r="F98" s="20" t="e"/>
       <c r="G98" s="20" t="e"/>
       <c r="H98" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I98" s="10" t="e"/>
       <c r="J98" s="10" t="e"/>
       <c r="K98" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L98" s="10" t="e"/>
       <c r="M98" s="10" t="e"/>
       <c r="N98" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O98" s="21" t="e"/>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99" s="20" t="e"/>
       <c r="C99" s="20" t="e"/>
@@ -3167,85 +3173,85 @@
       <c r="F99" s="20" t="e"/>
       <c r="G99" s="20" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I99" s="10" t="e"/>
+        <v>201</v>
+      </c>
+      <c r="I99" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="L99" s="10" t="e"/>
-      <c r="M99" s="10" t="e"/>
+      <c r="M99" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="N99" s="9" t="n">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="O99" s="21" t="e"/>
     </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A100" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="20" t="e"/>
-      <c r="C100" s="20" t="e"/>
-      <c r="D100" s="20" t="e"/>
-      <c r="E100" s="20" t="e"/>
-      <c r="F100" s="20" t="e"/>
-      <c r="G100" s="20" t="e"/>
-      <c r="H100" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="I100" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" s="10" t="e"/>
-      <c r="K100" s="9" t="n">
-        <v>194</v>
-      </c>
-      <c r="L100" s="10" t="e"/>
-      <c r="M100" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N100" s="9" t="n">
-        <v>194</v>
-      </c>
-      <c r="O100" s="21" t="e"/>
-    </row>
-    <row r="101" ht="11" customHeight="true">
-      <c r="A101" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="16" t="e"/>
-      <c r="C101" s="16" t="e"/>
-      <c r="D101" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="16" t="e"/>
-      <c r="F101" s="16" t="e"/>
-      <c r="G101" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H101" s="17" t="n">
-        <v>210</v>
-      </c>
-      <c r="I101" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" s="18" t="e"/>
-      <c r="K101" s="17" t="n">
-        <v>203</v>
-      </c>
-      <c r="L101" s="18" t="e"/>
-      <c r="M101" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N101" s="17" t="n">
-        <v>203</v>
-      </c>
-      <c r="O101" s="19" t="e"/>
+    <row r="100" ht="11" customHeight="true">
+      <c r="A100" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="16" t="e"/>
+      <c r="C100" s="16" t="e"/>
+      <c r="D100" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="16" t="e"/>
+      <c r="F100" s="16" t="e"/>
+      <c r="G100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" s="17" t="n">
+        <v>213</v>
+      </c>
+      <c r="I100" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" s="18" t="e"/>
+      <c r="K100" s="17" t="n">
+        <v>190</v>
+      </c>
+      <c r="L100" s="18" t="e"/>
+      <c r="M100" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="N100" s="17" t="n">
+        <v>190</v>
+      </c>
+      <c r="O100" s="19" t="e"/>
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A101" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="20" t="e"/>
+      <c r="C101" s="20" t="e"/>
+      <c r="D101" s="20" t="e"/>
+      <c r="E101" s="20" t="e"/>
+      <c r="F101" s="20" t="e"/>
+      <c r="G101" s="20" t="e"/>
+      <c r="H101" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I101" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" s="10" t="e"/>
+      <c r="K101" s="10" t="e"/>
+      <c r="L101" s="10" t="e"/>
+      <c r="M101" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N101" s="10" t="e"/>
+      <c r="O101" s="21" t="e"/>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B102" s="20" t="e"/>
       <c r="C102" s="20" t="e"/>
@@ -3254,23 +3260,23 @@
       <c r="F102" s="20" t="e"/>
       <c r="G102" s="20" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L102" s="10" t="e"/>
       <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O102" s="21" t="e"/>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
       <c r="A103" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B103" s="20" t="e"/>
       <c r="C103" s="20" t="e"/>
@@ -3279,32 +3285,32 @@
       <c r="F103" s="20" t="e"/>
       <c r="G103" s="20" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I103" s="9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L103" s="10" t="e"/>
       <c r="M103" s="9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N103" s="9" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O103" s="21" t="e"/>
     </row>
     <row r="104" ht="11" customHeight="true">
       <c r="A104" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B104" s="16" t="e"/>
       <c r="C104" s="16" t="e"/>
       <c r="D104" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="16" t="e"/>
       <c r="F104" s="16" t="e"/>
@@ -3312,27 +3318,27 @@
         <v>25</v>
       </c>
       <c r="H104" s="17" t="n">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="I104" s="17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J104" s="18" t="e"/>
       <c r="K104" s="17" t="n">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="L104" s="18" t="e"/>
       <c r="M104" s="17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N104" s="17" t="n">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="O104" s="19" t="e"/>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
       <c r="A105" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B105" s="20" t="e"/>
       <c r="C105" s="20" t="e"/>
@@ -3341,23 +3347,27 @@
       <c r="F105" s="20" t="e"/>
       <c r="G105" s="20" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I105" s="10" t="e"/>
+        <v>10</v>
+      </c>
+      <c r="I105" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L105" s="10" t="e"/>
-      <c r="M105" s="10" t="e"/>
+      <c r="M105" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="N105" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O105" s="21" t="e"/>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
       <c r="A106" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B106" s="20" t="e"/>
       <c r="C106" s="20" t="e"/>
@@ -3366,32 +3376,32 @@
       <c r="F106" s="20" t="e"/>
       <c r="G106" s="20" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="I106" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="L106" s="10" t="e"/>
       <c r="M106" s="9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N106" s="9" t="n">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="O106" s="21" t="e"/>
     </row>
     <row r="107" ht="11" customHeight="true">
       <c r="A107" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B107" s="16" t="e"/>
       <c r="C107" s="16" t="e"/>
       <c r="D107" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E107" s="16" t="e"/>
       <c r="F107" s="16" t="e"/>
@@ -3399,27 +3409,27 @@
         <v>25</v>
       </c>
       <c r="H107" s="17" t="n">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="I107" s="17" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J107" s="18" t="e"/>
       <c r="K107" s="17" t="n">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="L107" s="18" t="e"/>
       <c r="M107" s="17" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N107" s="17" t="n">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="O107" s="19" t="e"/>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
       <c r="A108" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B108" s="20" t="e"/>
       <c r="C108" s="20" t="e"/>
@@ -3428,23 +3438,27 @@
       <c r="F108" s="20" t="e"/>
       <c r="G108" s="20" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I108" s="10" t="e"/>
+        <v>10</v>
+      </c>
+      <c r="I108" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L108" s="10" t="e"/>
-      <c r="M108" s="10" t="e"/>
+      <c r="M108" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="N108" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O108" s="21" t="e"/>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
       <c r="A109" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" s="20" t="e"/>
       <c r="C109" s="20" t="e"/>
@@ -3453,81 +3467,89 @@
       <c r="F109" s="20" t="e"/>
       <c r="G109" s="20" t="e"/>
       <c r="H109" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I109" s="10" t="e"/>
+        <v>100</v>
+      </c>
+      <c r="I109" s="9" t="n">
+        <v>19</v>
+      </c>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="L109" s="10" t="e"/>
+      <c r="M109" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="N109" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="O109" s="21" t="e"/>
+    </row>
+    <row r="110" ht="11" customHeight="true">
+      <c r="A110" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="16" t="e"/>
+      <c r="C110" s="16" t="e"/>
+      <c r="D110" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="16" t="e"/>
+      <c r="F110" s="16" t="e"/>
+      <c r="G110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="I110" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="L109" s="10" t="e"/>
-      <c r="M109" s="10" t="e"/>
-      <c r="N109" s="9" t="n">
+      <c r="J110" s="18" t="e"/>
+      <c r="K110" s="17" t="n">
+        <v>107</v>
+      </c>
+      <c r="L110" s="18" t="e"/>
+      <c r="M110" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="O109" s="21" t="e"/>
-    </row>
-    <row r="110" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A110" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="20" t="e"/>
-      <c r="C110" s="20" t="e"/>
-      <c r="D110" s="20" t="e"/>
-      <c r="E110" s="20" t="e"/>
-      <c r="F110" s="20" t="e"/>
-      <c r="G110" s="20" t="e"/>
-      <c r="H110" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="I110" s="9" t="n">
+      <c r="N110" s="17" t="n">
+        <v>107</v>
+      </c>
+      <c r="O110" s="19" t="e"/>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A111" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="20" t="e"/>
+      <c r="C111" s="20" t="e"/>
+      <c r="D111" s="20" t="e"/>
+      <c r="E111" s="20" t="e"/>
+      <c r="F111" s="20" t="e"/>
+      <c r="G111" s="20" t="e"/>
+      <c r="H111" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="J110" s="10" t="e"/>
-      <c r="K110" s="9" t="n">
-        <v>193</v>
-      </c>
-      <c r="L110" s="10" t="e"/>
-      <c r="M110" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="N110" s="9" t="n">
-        <v>193</v>
-      </c>
-      <c r="O110" s="21" t="e"/>
-    </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="16" t="e"/>
-      <c r="C111" s="16" t="e"/>
-      <c r="D111" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="16" t="e"/>
-      <c r="F111" s="16" t="e"/>
-      <c r="G111" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="I111" s="18" t="e"/>
-      <c r="J111" s="18" t="e"/>
-      <c r="K111" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="L111" s="18" t="e"/>
-      <c r="M111" s="18" t="e"/>
-      <c r="N111" s="17" t="n">
-        <v>90</v>
-      </c>
-      <c r="O111" s="19" t="e"/>
+      <c r="I111" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" s="10" t="e"/>
+      <c r="K111" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" s="21" t="e"/>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" s="20" t="e"/>
       <c r="C112" s="20" t="e"/>
@@ -3536,244 +3558,57 @@
       <c r="F112" s="20" t="e"/>
       <c r="G112" s="20" t="e"/>
       <c r="H112" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I112" s="10" t="e"/>
+        <v>105</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="J112" s="10" t="e"/>
       <c r="K112" s="9" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="L112" s="10" t="e"/>
-      <c r="M112" s="10" t="e"/>
+      <c r="M112" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="N112" s="9" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="O112" s="21" t="e"/>
     </row>
-    <row r="113" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A113" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="20" t="e"/>
-      <c r="C113" s="20" t="e"/>
-      <c r="D113" s="20" t="e"/>
-      <c r="E113" s="20" t="e"/>
-      <c r="F113" s="20" t="e"/>
-      <c r="G113" s="20" t="e"/>
-      <c r="H113" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="I113" s="10" t="e"/>
-      <c r="J113" s="10" t="e"/>
-      <c r="K113" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="L113" s="10" t="e"/>
-      <c r="M113" s="10" t="e"/>
-      <c r="N113" s="9" t="n">
-        <v>80</v>
-      </c>
-      <c r="O113" s="21" t="e"/>
-    </row>
-    <row r="114" ht="11" customHeight="true">
-      <c r="A114" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B114" s="16" t="e"/>
-      <c r="C114" s="16" t="e"/>
-      <c r="D114" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="16" t="e"/>
-      <c r="F114" s="16" t="e"/>
-      <c r="G114" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="I114" s="18" t="e"/>
-      <c r="J114" s="18" t="e"/>
-      <c r="K114" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="L114" s="18" t="e"/>
-      <c r="M114" s="18" t="e"/>
-      <c r="N114" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="O114" s="19" t="e"/>
-    </row>
-    <row r="115" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A115" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" s="20" t="e"/>
-      <c r="C115" s="20" t="e"/>
-      <c r="D115" s="20" t="e"/>
-      <c r="E115" s="20" t="e"/>
-      <c r="F115" s="20" t="e"/>
-      <c r="G115" s="20" t="e"/>
-      <c r="H115" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I115" s="10" t="e"/>
-      <c r="J115" s="10" t="e"/>
-      <c r="K115" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L115" s="10" t="e"/>
-      <c r="M115" s="10" t="e"/>
-      <c r="N115" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O115" s="21" t="e"/>
-    </row>
-    <row r="116" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A116" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116" s="20" t="e"/>
-      <c r="C116" s="20" t="e"/>
-      <c r="D116" s="20" t="e"/>
-      <c r="E116" s="20" t="e"/>
-      <c r="F116" s="20" t="e"/>
-      <c r="G116" s="20" t="e"/>
-      <c r="H116" s="9" t="n">
-        <v>103</v>
-      </c>
-      <c r="I116" s="10" t="e"/>
-      <c r="J116" s="10" t="e"/>
-      <c r="K116" s="9" t="n">
-        <v>103</v>
-      </c>
-      <c r="L116" s="10" t="e"/>
-      <c r="M116" s="10" t="e"/>
-      <c r="N116" s="9" t="n">
-        <v>103</v>
-      </c>
-      <c r="O116" s="21" t="e"/>
-    </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" s="16" t="e"/>
-      <c r="C117" s="16" t="e"/>
-      <c r="D117" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" s="16" t="e"/>
-      <c r="F117" s="16" t="e"/>
-      <c r="G117" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H117" s="17" t="n">
-        <v>117</v>
-      </c>
-      <c r="I117" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" s="18" t="e"/>
-      <c r="K117" s="17" t="n">
-        <v>116</v>
-      </c>
-      <c r="L117" s="18" t="e"/>
-      <c r="M117" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" s="17" t="n">
-        <v>116</v>
-      </c>
-      <c r="O117" s="19" t="e"/>
-    </row>
-    <row r="118" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A118" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118" s="20" t="e"/>
-      <c r="C118" s="20" t="e"/>
-      <c r="D118" s="20" t="e"/>
-      <c r="E118" s="20" t="e"/>
-      <c r="F118" s="20" t="e"/>
-      <c r="G118" s="20" t="e"/>
-      <c r="H118" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I118" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" s="10" t="e"/>
-      <c r="K118" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L118" s="10" t="e"/>
-      <c r="M118" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O118" s="21" t="e"/>
-    </row>
-    <row r="119" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A119" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B119" s="20" t="e"/>
-      <c r="C119" s="20" t="e"/>
-      <c r="D119" s="20" t="e"/>
-      <c r="E119" s="20" t="e"/>
-      <c r="F119" s="20" t="e"/>
-      <c r="G119" s="20" t="e"/>
-      <c r="H119" s="9" t="n">
-        <v>109</v>
-      </c>
-      <c r="I119" s="10" t="e"/>
-      <c r="J119" s="10" t="e"/>
-      <c r="K119" s="9" t="n">
-        <v>109</v>
-      </c>
-      <c r="L119" s="10" t="e"/>
-      <c r="M119" s="10" t="e"/>
-      <c r="N119" s="9" t="n">
-        <v>109</v>
-      </c>
-      <c r="O119" s="21" t="e"/>
-    </row>
-    <row r="120" ht="13" customHeight="true">
-      <c r="A120" s="12" t="s">
+    <row r="113" ht="13" customHeight="true">
+      <c r="A113" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="12" t="e"/>
-      <c r="C120" s="12" t="e"/>
-      <c r="D120" s="12" t="e"/>
-      <c r="E120" s="12" t="e"/>
-      <c r="F120" s="12" t="e"/>
-      <c r="G120" s="12" t="e"/>
-      <c r="H120" s="13" t="n">
-        <v>3374</v>
-      </c>
-      <c r="I120" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="J120" s="15" t="e"/>
-      <c r="K120" s="13" t="n">
-        <v>3335</v>
-      </c>
-      <c r="L120" s="14" t="n">
-        <v>30</v>
-      </c>
-      <c r="M120" s="14" t="n">
-        <v>39</v>
-      </c>
-      <c r="N120" s="13" t="n">
-        <v>3365</v>
-      </c>
-      <c r="O120" s="15" t="e"/>
+      <c r="B113" s="12" t="e"/>
+      <c r="C113" s="12" t="e"/>
+      <c r="D113" s="12" t="e"/>
+      <c r="E113" s="12" t="e"/>
+      <c r="F113" s="12" t="e"/>
+      <c r="G113" s="12" t="e"/>
+      <c r="H113" s="13" t="n">
+        <v>3350</v>
+      </c>
+      <c r="I113" s="14" t="n">
+        <v>119</v>
+      </c>
+      <c r="J113" s="15" t="e"/>
+      <c r="K113" s="13" t="n">
+        <v>3231</v>
+      </c>
+      <c r="L113" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="M113" s="14" t="n">
+        <v>119</v>
+      </c>
+      <c r="N113" s="13" t="n">
+        <v>3261</v>
+      </c>
+      <c r="O113" s="15" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="158">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3800,14 +3635,14 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
@@ -3818,13 +3653,13 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
@@ -3832,9 +3667,9 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="D44:F44"/>
@@ -3842,13 +3677,13 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
     <mergeCell ref="A53:G53"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
@@ -3859,9 +3694,9 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
     <mergeCell ref="A62:G62"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D63:F63"/>
@@ -3881,15 +3716,14 @@
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="D73:F73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:F76"/>
     <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="A80:G80"/>
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="D82:F82"/>
@@ -3915,9 +3749,9 @@
     <mergeCell ref="D97:F97"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
     <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:C104"/>
@@ -3928,20 +3762,11 @@
     <mergeCell ref="D107:F107"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="A111:G111"/>
     <mergeCell ref="A112:G112"/>
     <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A120:G120"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>

--- a/autosklad/uploads/22222.xlsx
+++ b/autosklad/uploads/22222.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Остатки и доступность товаров</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Ожидается</t>
   </si>
   <si>
-    <t>01.02.2024 г.</t>
+    <t>02.02.2024 г.</t>
   </si>
   <si>
     <t>Артикул</t>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>1840-30 Крепящий якорь универсальный. Пластик. (УПАКОВКА - 30 штук)</t>
+  </si>
+  <si>
+    <t>Всеинструменты</t>
   </si>
   <si>
     <t>1940-10</t>
@@ -542,7 +545,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="O110"/>
+  <dimension ref="O113"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -738,21 +741,17 @@
       <c r="F11" s="8" t="e"/>
       <c r="G11" s="8" t="e"/>
       <c r="H11" s="11" t="n">
-        <v>1386</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>20</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="I11" s="10" t="e"/>
       <c r="J11" s="10" t="e"/>
       <c r="K11" s="11" t="n">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="L11" s="10" t="e"/>
-      <c r="M11" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="M11" s="10" t="e"/>
       <c r="N11" s="11" t="n">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="O11" s="10" t="e"/>
     </row>
@@ -767,21 +766,21 @@
       <c r="F12" s="8" t="e"/>
       <c r="G12" s="8" t="e"/>
       <c r="H12" s="11" t="n">
-        <v>1438</v>
+        <v>1622</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10" t="e"/>
       <c r="K12" s="11" t="n">
-        <v>1384</v>
+        <v>1609</v>
       </c>
       <c r="L12" s="10" t="e"/>
       <c r="M12" s="9" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>1384</v>
+        <v>1609</v>
       </c>
       <c r="O12" s="10" t="e"/>
     </row>
@@ -796,23 +795,23 @@
       <c r="F13" s="12" t="e"/>
       <c r="G13" s="12" t="e"/>
       <c r="H13" s="13" t="n">
-        <v>3108</v>
+        <v>3286</v>
       </c>
       <c r="I13" s="14" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="J13" s="15" t="e"/>
       <c r="K13" s="13" t="n">
-        <v>3034</v>
+        <v>3273</v>
       </c>
       <c r="L13" s="14" t="n">
         <v>30</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>3064</v>
+        <v>3303</v>
       </c>
       <c r="O13" s="15" t="e"/>
     </row>
@@ -1581,19 +1580,15 @@
       <c r="H42" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="I42" s="17" t="n">
-        <v>8</v>
-      </c>
+      <c r="I42" s="18" t="e"/>
       <c r="J42" s="18" t="e"/>
       <c r="K42" s="17" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L42" s="18" t="e"/>
-      <c r="M42" s="17" t="n">
-        <v>8</v>
-      </c>
+      <c r="M42" s="18" t="e"/>
       <c r="N42" s="17" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O42" s="21" t="e"/>
     </row>
@@ -1610,19 +1605,15 @@
       <c r="H43" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="I43" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="I43" s="10" t="e"/>
       <c r="J43" s="10" t="e"/>
       <c r="K43" s="9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L43" s="10" t="e"/>
-      <c r="M43" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="M43" s="10" t="e"/>
       <c r="N43" s="9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O43" s="20" t="e"/>
     </row>
@@ -1799,17 +1790,17 @@
         <v>25</v>
       </c>
       <c r="H50" s="17" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I50" s="18" t="e"/>
       <c r="J50" s="18" t="e"/>
       <c r="K50" s="17" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L50" s="18" t="e"/>
       <c r="M50" s="18" t="e"/>
       <c r="N50" s="17" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O50" s="21" t="e"/>
     </row>
@@ -1824,17 +1815,17 @@
       <c r="F51" s="19" t="e"/>
       <c r="G51" s="19" t="e"/>
       <c r="H51" s="9" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I51" s="10" t="e"/>
       <c r="J51" s="10" t="e"/>
       <c r="K51" s="9" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L51" s="10" t="e"/>
       <c r="M51" s="10" t="e"/>
       <c r="N51" s="9" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O51" s="20" t="e"/>
     </row>
@@ -2256,21 +2247,17 @@
         <v>25</v>
       </c>
       <c r="H67" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="I67" s="17" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I67" s="18" t="e"/>
       <c r="J67" s="18" t="e"/>
       <c r="K67" s="17" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L67" s="18" t="e"/>
-      <c r="M67" s="17" t="n">
-        <v>2</v>
-      </c>
+      <c r="M67" s="18" t="e"/>
       <c r="N67" s="17" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O67" s="21" t="e"/>
     </row>
@@ -2285,21 +2272,17 @@
       <c r="F68" s="19" t="e"/>
       <c r="G68" s="19" t="e"/>
       <c r="H68" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I68" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="I68" s="10" t="e"/>
       <c r="J68" s="10" t="e"/>
       <c r="K68" s="9" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L68" s="10" t="e"/>
-      <c r="M68" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M68" s="10" t="e"/>
       <c r="N68" s="9" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O68" s="20" t="e"/>
     </row>
@@ -2318,17 +2301,17 @@
         <v>25</v>
       </c>
       <c r="H69" s="17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I69" s="18" t="e"/>
       <c r="J69" s="18" t="e"/>
       <c r="K69" s="17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L69" s="18" t="e"/>
       <c r="M69" s="18" t="e"/>
       <c r="N69" s="17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O69" s="21" t="e"/>
     </row>
@@ -2343,17 +2326,17 @@
       <c r="F70" s="19" t="e"/>
       <c r="G70" s="19" t="e"/>
       <c r="H70" s="9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I70" s="10" t="e"/>
       <c r="J70" s="10" t="e"/>
       <c r="K70" s="9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L70" s="10" t="e"/>
       <c r="M70" s="10" t="e"/>
       <c r="N70" s="9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O70" s="20" t="e"/>
     </row>
@@ -2372,19 +2355,15 @@
         <v>25</v>
       </c>
       <c r="H71" s="17" t="n">
-        <v>86</v>
-      </c>
-      <c r="I71" s="17" t="n">
-        <v>9</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I71" s="18" t="e"/>
       <c r="J71" s="18" t="e"/>
       <c r="K71" s="17" t="n">
         <v>77</v>
       </c>
       <c r="L71" s="18" t="e"/>
-      <c r="M71" s="17" t="n">
-        <v>9</v>
-      </c>
+      <c r="M71" s="18" t="e"/>
       <c r="N71" s="17" t="n">
         <v>77</v>
       </c>
@@ -2426,19 +2405,15 @@
       <c r="F73" s="19" t="e"/>
       <c r="G73" s="19" t="e"/>
       <c r="H73" s="9" t="n">
-        <v>69</v>
-      </c>
-      <c r="I73" s="9" t="n">
-        <v>9</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I73" s="10" t="e"/>
       <c r="J73" s="10" t="e"/>
       <c r="K73" s="9" t="n">
         <v>60</v>
       </c>
       <c r="L73" s="10" t="e"/>
-      <c r="M73" s="9" t="n">
-        <v>9</v>
-      </c>
+      <c r="M73" s="10" t="e"/>
       <c r="N73" s="9" t="n">
         <v>60</v>
       </c>
@@ -2459,21 +2434,17 @@
         <v>25</v>
       </c>
       <c r="H74" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="I74" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I74" s="18" t="e"/>
       <c r="J74" s="18" t="e"/>
       <c r="K74" s="17" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L74" s="18" t="e"/>
-      <c r="M74" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M74" s="18" t="e"/>
       <c r="N74" s="17" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O74" s="21" t="e"/>
     </row>
@@ -2513,21 +2484,17 @@
       <c r="F76" s="19" t="e"/>
       <c r="G76" s="19" t="e"/>
       <c r="H76" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I76" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I76" s="10" t="e"/>
       <c r="J76" s="10" t="e"/>
       <c r="K76" s="9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L76" s="10" t="e"/>
-      <c r="M76" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M76" s="10" t="e"/>
       <c r="N76" s="9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O76" s="20" t="e"/>
     </row>
@@ -2548,21 +2515,25 @@
       <c r="H77" s="17" t="n">
         <v>115</v>
       </c>
-      <c r="I77" s="18" t="e"/>
+      <c r="I77" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J77" s="18" t="e"/>
       <c r="K77" s="17" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L77" s="18" t="e"/>
-      <c r="M77" s="18" t="e"/>
+      <c r="M77" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="N77" s="17" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O77" s="21" t="e"/>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
       <c r="A78" s="19" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B78" s="19" t="e"/>
       <c r="C78" s="19" t="e"/>
@@ -2571,23 +2542,23 @@
       <c r="F78" s="19" t="e"/>
       <c r="G78" s="19" t="e"/>
       <c r="H78" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I78" s="10" t="e"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="J78" s="10" t="e"/>
-      <c r="K78" s="9" t="n">
-        <v>15</v>
-      </c>
+      <c r="K78" s="10" t="e"/>
       <c r="L78" s="10" t="e"/>
-      <c r="M78" s="10" t="e"/>
-      <c r="N78" s="9" t="n">
-        <v>15</v>
-      </c>
+      <c r="M78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="10" t="e"/>
       <c r="O78" s="20" t="e"/>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
       <c r="A79" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="19" t="e"/>
       <c r="C79" s="19" t="e"/>
@@ -2596,81 +2567,77 @@
       <c r="F79" s="19" t="e"/>
       <c r="G79" s="19" t="e"/>
       <c r="H79" s="9" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I79" s="10" t="e"/>
       <c r="J79" s="10" t="e"/>
       <c r="K79" s="9" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L79" s="10" t="e"/>
       <c r="M79" s="10" t="e"/>
       <c r="N79" s="9" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="O79" s="20" t="e"/>
     </row>
-    <row r="80" ht="22" customHeight="true">
-      <c r="A80" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="16" t="e"/>
-      <c r="C80" s="16" t="e"/>
-      <c r="D80" s="16" t="s">
+    <row r="80" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A80" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="19" t="e"/>
+      <c r="C80" s="19" t="e"/>
+      <c r="D80" s="19" t="e"/>
+      <c r="E80" s="19" t="e"/>
+      <c r="F80" s="19" t="e"/>
+      <c r="G80" s="19" t="e"/>
+      <c r="H80" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="I80" s="10" t="e"/>
+      <c r="J80" s="10" t="e"/>
+      <c r="K80" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="L80" s="10" t="e"/>
+      <c r="M80" s="10" t="e"/>
+      <c r="N80" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="O80" s="20" t="e"/>
+    </row>
+    <row r="81" ht="22" customHeight="true">
+      <c r="A81" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="16" t="e"/>
-      <c r="F80" s="16" t="e"/>
-      <c r="G80" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H80" s="17" t="n">
-        <v>113</v>
-      </c>
-      <c r="I80" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" s="18" t="e"/>
-      <c r="K80" s="17" t="n">
+      <c r="B81" s="16" t="e"/>
+      <c r="C81" s="16" t="e"/>
+      <c r="D81" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="16" t="e"/>
+      <c r="F81" s="16" t="e"/>
+      <c r="G81" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="17" t="n">
         <v>110</v>
       </c>
-      <c r="L80" s="18" t="e"/>
-      <c r="M80" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N80" s="17" t="n">
+      <c r="I81" s="18" t="e"/>
+      <c r="J81" s="18" t="e"/>
+      <c r="K81" s="17" t="n">
         <v>110</v>
       </c>
-      <c r="O80" s="21" t="e"/>
-    </row>
-    <row r="81" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A81" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="19" t="e"/>
-      <c r="C81" s="19" t="e"/>
-      <c r="D81" s="19" t="e"/>
-      <c r="E81" s="19" t="e"/>
-      <c r="F81" s="19" t="e"/>
-      <c r="G81" s="19" t="e"/>
-      <c r="H81" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="I81" s="10" t="e"/>
-      <c r="J81" s="10" t="e"/>
-      <c r="K81" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="L81" s="10" t="e"/>
-      <c r="M81" s="10" t="e"/>
-      <c r="N81" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="O81" s="20" t="e"/>
+      <c r="L81" s="18" t="e"/>
+      <c r="M81" s="18" t="e"/>
+      <c r="N81" s="17" t="n">
+        <v>110</v>
+      </c>
+      <c r="O81" s="21" t="e"/>
     </row>
     <row r="82" ht="11" customHeight="true" outlineLevel="1">
       <c r="A82" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82" s="19" t="e"/>
       <c r="C82" s="19" t="e"/>
@@ -2679,85 +2646,77 @@
       <c r="F82" s="19" t="e"/>
       <c r="G82" s="19" t="e"/>
       <c r="H82" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="I82" s="9" t="n">
-        <v>3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I82" s="10" t="e"/>
       <c r="J82" s="10" t="e"/>
       <c r="K82" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L82" s="10" t="e"/>
+      <c r="M82" s="10" t="e"/>
+      <c r="N82" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="O82" s="20" t="e"/>
+    </row>
+    <row r="83" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A83" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="19" t="e"/>
+      <c r="C83" s="19" t="e"/>
+      <c r="D83" s="19" t="e"/>
+      <c r="E83" s="19" t="e"/>
+      <c r="F83" s="19" t="e"/>
+      <c r="G83" s="19" t="e"/>
+      <c r="H83" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="L82" s="10" t="e"/>
-      <c r="M82" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N82" s="9" t="n">
+      <c r="I83" s="10" t="e"/>
+      <c r="J83" s="10" t="e"/>
+      <c r="K83" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="O82" s="20" t="e"/>
-    </row>
-    <row r="83" ht="11" customHeight="true">
-      <c r="A83" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="16" t="e"/>
-      <c r="C83" s="16" t="e"/>
-      <c r="D83" s="16" t="s">
+      <c r="L83" s="10" t="e"/>
+      <c r="M83" s="10" t="e"/>
+      <c r="N83" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="O83" s="20" t="e"/>
+    </row>
+    <row r="84" ht="11" customHeight="true">
+      <c r="A84" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E83" s="16" t="e"/>
-      <c r="F83" s="16" t="e"/>
-      <c r="G83" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H83" s="17" t="n">
-        <v>120</v>
-      </c>
-      <c r="I83" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" s="18" t="e"/>
-      <c r="K83" s="17" t="n">
-        <v>119</v>
-      </c>
-      <c r="L83" s="18" t="e"/>
-      <c r="M83" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" s="17" t="n">
-        <v>119</v>
-      </c>
-      <c r="O83" s="21" t="e"/>
-    </row>
-    <row r="84" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A84" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" s="19" t="e"/>
-      <c r="C84" s="19" t="e"/>
-      <c r="D84" s="19" t="e"/>
-      <c r="E84" s="19" t="e"/>
-      <c r="F84" s="19" t="e"/>
-      <c r="G84" s="19" t="e"/>
-      <c r="H84" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="I84" s="10" t="e"/>
-      <c r="J84" s="10" t="e"/>
-      <c r="K84" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="L84" s="10" t="e"/>
-      <c r="M84" s="10" t="e"/>
-      <c r="N84" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="O84" s="20" t="e"/>
+      <c r="B84" s="16" t="e"/>
+      <c r="C84" s="16" t="e"/>
+      <c r="D84" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="16" t="e"/>
+      <c r="F84" s="16" t="e"/>
+      <c r="G84" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="17" t="n">
+        <v>116</v>
+      </c>
+      <c r="I84" s="18" t="e"/>
+      <c r="J84" s="18" t="e"/>
+      <c r="K84" s="17" t="n">
+        <v>116</v>
+      </c>
+      <c r="L84" s="18" t="e"/>
+      <c r="M84" s="18" t="e"/>
+      <c r="N84" s="17" t="n">
+        <v>116</v>
+      </c>
+      <c r="O84" s="21" t="e"/>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="19" t="e"/>
       <c r="C85" s="19" t="e"/>
@@ -2766,81 +2725,77 @@
       <c r="F85" s="19" t="e"/>
       <c r="G85" s="19" t="e"/>
       <c r="H85" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="I85" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I85" s="10" t="e"/>
       <c r="J85" s="10" t="e"/>
       <c r="K85" s="9" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="L85" s="10" t="e"/>
-      <c r="M85" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="M85" s="10" t="e"/>
       <c r="N85" s="9" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O85" s="20" t="e"/>
     </row>
-    <row r="86" ht="11" customHeight="true">
-      <c r="A86" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="16" t="e"/>
-      <c r="C86" s="16" t="e"/>
-      <c r="D86" s="16" t="s">
+    <row r="86" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A86" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="19" t="e"/>
+      <c r="C86" s="19" t="e"/>
+      <c r="D86" s="19" t="e"/>
+      <c r="E86" s="19" t="e"/>
+      <c r="F86" s="19" t="e"/>
+      <c r="G86" s="19" t="e"/>
+      <c r="H86" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="I86" s="10" t="e"/>
+      <c r="J86" s="10" t="e"/>
+      <c r="K86" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="L86" s="10" t="e"/>
+      <c r="M86" s="10" t="e"/>
+      <c r="N86" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="O86" s="20" t="e"/>
+    </row>
+    <row r="87" ht="11" customHeight="true">
+      <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="16" t="e"/>
-      <c r="F86" s="16" t="e"/>
-      <c r="G86" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" s="17" t="n">
-        <v>208</v>
-      </c>
-      <c r="I86" s="18" t="e"/>
-      <c r="J86" s="18" t="e"/>
-      <c r="K86" s="17" t="n">
-        <v>208</v>
-      </c>
-      <c r="L86" s="18" t="e"/>
-      <c r="M86" s="18" t="e"/>
-      <c r="N86" s="17" t="n">
-        <v>208</v>
-      </c>
-      <c r="O86" s="21" t="e"/>
-    </row>
-    <row r="87" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A87" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="19" t="e"/>
-      <c r="C87" s="19" t="e"/>
-      <c r="D87" s="19" t="e"/>
-      <c r="E87" s="19" t="e"/>
-      <c r="F87" s="19" t="e"/>
-      <c r="G87" s="19" t="e"/>
-      <c r="H87" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="I87" s="10" t="e"/>
-      <c r="J87" s="10" t="e"/>
-      <c r="K87" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L87" s="10" t="e"/>
-      <c r="M87" s="10" t="e"/>
-      <c r="N87" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O87" s="20" t="e"/>
+      <c r="B87" s="16" t="e"/>
+      <c r="C87" s="16" t="e"/>
+      <c r="D87" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" s="16" t="e"/>
+      <c r="F87" s="16" t="e"/>
+      <c r="G87" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="17" t="n">
+        <v>206</v>
+      </c>
+      <c r="I87" s="18" t="e"/>
+      <c r="J87" s="18" t="e"/>
+      <c r="K87" s="17" t="n">
+        <v>206</v>
+      </c>
+      <c r="L87" s="18" t="e"/>
+      <c r="M87" s="18" t="e"/>
+      <c r="N87" s="17" t="n">
+        <v>206</v>
+      </c>
+      <c r="O87" s="21" t="e"/>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88" s="19" t="e"/>
       <c r="C88" s="19" t="e"/>
@@ -2849,81 +2804,77 @@
       <c r="F88" s="19" t="e"/>
       <c r="G88" s="19" t="e"/>
       <c r="H88" s="9" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="I88" s="10" t="e"/>
       <c r="J88" s="10" t="e"/>
       <c r="K88" s="9" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L88" s="10" t="e"/>
       <c r="M88" s="10" t="e"/>
       <c r="N88" s="9" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="O88" s="20" t="e"/>
     </row>
-    <row r="89" ht="11" customHeight="true">
-      <c r="A89" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="16" t="e"/>
-      <c r="C89" s="16" t="e"/>
-      <c r="D89" s="16" t="s">
+    <row r="89" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A89" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="19" t="e"/>
+      <c r="C89" s="19" t="e"/>
+      <c r="D89" s="19" t="e"/>
+      <c r="E89" s="19" t="e"/>
+      <c r="F89" s="19" t="e"/>
+      <c r="G89" s="19" t="e"/>
+      <c r="H89" s="9" t="n">
+        <v>198</v>
+      </c>
+      <c r="I89" s="10" t="e"/>
+      <c r="J89" s="10" t="e"/>
+      <c r="K89" s="9" t="n">
+        <v>198</v>
+      </c>
+      <c r="L89" s="10" t="e"/>
+      <c r="M89" s="10" t="e"/>
+      <c r="N89" s="9" t="n">
+        <v>198</v>
+      </c>
+      <c r="O89" s="20" t="e"/>
+    </row>
+    <row r="90" ht="11" customHeight="true">
+      <c r="A90" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="16" t="e"/>
-      <c r="F89" s="16" t="e"/>
-      <c r="G89" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" s="17" t="n">
-        <v>205</v>
-      </c>
-      <c r="I89" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J89" s="18" t="e"/>
-      <c r="K89" s="17" t="n">
-        <v>198</v>
-      </c>
-      <c r="L89" s="18" t="e"/>
-      <c r="M89" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N89" s="17" t="n">
-        <v>198</v>
-      </c>
-      <c r="O89" s="21" t="e"/>
-    </row>
-    <row r="90" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A90" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="19" t="e"/>
-      <c r="C90" s="19" t="e"/>
-      <c r="D90" s="19" t="e"/>
-      <c r="E90" s="19" t="e"/>
-      <c r="F90" s="19" t="e"/>
-      <c r="G90" s="19" t="e"/>
-      <c r="H90" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I90" s="10" t="e"/>
-      <c r="J90" s="10" t="e"/>
-      <c r="K90" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="L90" s="10" t="e"/>
-      <c r="M90" s="10" t="e"/>
-      <c r="N90" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O90" s="20" t="e"/>
+      <c r="B90" s="16" t="e"/>
+      <c r="C90" s="16" t="e"/>
+      <c r="D90" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="16" t="e"/>
+      <c r="F90" s="16" t="e"/>
+      <c r="G90" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="I90" s="18" t="e"/>
+      <c r="J90" s="18" t="e"/>
+      <c r="K90" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="L90" s="18" t="e"/>
+      <c r="M90" s="18" t="e"/>
+      <c r="N90" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="O90" s="21" t="e"/>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
       <c r="A91" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" s="19" t="e"/>
       <c r="C91" s="19" t="e"/>
@@ -2932,85 +2883,77 @@
       <c r="F91" s="19" t="e"/>
       <c r="G91" s="19" t="e"/>
       <c r="H91" s="9" t="n">
-        <v>201</v>
-      </c>
-      <c r="I91" s="9" t="n">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I91" s="10" t="e"/>
       <c r="J91" s="10" t="e"/>
       <c r="K91" s="9" t="n">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="L91" s="10" t="e"/>
-      <c r="M91" s="9" t="n">
-        <v>7</v>
-      </c>
+      <c r="M91" s="10" t="e"/>
       <c r="N91" s="9" t="n">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="O91" s="20" t="e"/>
     </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="16" t="e"/>
-      <c r="C92" s="16" t="e"/>
-      <c r="D92" s="16" t="s">
+    <row r="92" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A92" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="19" t="e"/>
+      <c r="C92" s="19" t="e"/>
+      <c r="D92" s="19" t="e"/>
+      <c r="E92" s="19" t="e"/>
+      <c r="F92" s="19" t="e"/>
+      <c r="G92" s="19" t="e"/>
+      <c r="H92" s="9" t="n">
+        <v>187</v>
+      </c>
+      <c r="I92" s="10" t="e"/>
+      <c r="J92" s="10" t="e"/>
+      <c r="K92" s="9" t="n">
+        <v>187</v>
+      </c>
+      <c r="L92" s="10" t="e"/>
+      <c r="M92" s="10" t="e"/>
+      <c r="N92" s="9" t="n">
+        <v>187</v>
+      </c>
+      <c r="O92" s="20" t="e"/>
+    </row>
+    <row r="93" ht="11" customHeight="true">
+      <c r="A93" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="16" t="e"/>
-      <c r="F92" s="16" t="e"/>
-      <c r="G92" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" s="17" t="n">
-        <v>183</v>
-      </c>
-      <c r="I92" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" s="18" t="e"/>
-      <c r="K92" s="17" t="n">
-        <v>178</v>
-      </c>
-      <c r="L92" s="18" t="e"/>
-      <c r="M92" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N92" s="17" t="n">
-        <v>178</v>
-      </c>
-      <c r="O92" s="21" t="e"/>
-    </row>
-    <row r="93" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A93" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="19" t="e"/>
-      <c r="C93" s="19" t="e"/>
-      <c r="D93" s="19" t="e"/>
-      <c r="E93" s="19" t="e"/>
-      <c r="F93" s="19" t="e"/>
-      <c r="G93" s="19" t="e"/>
-      <c r="H93" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I93" s="10" t="e"/>
-      <c r="J93" s="10" t="e"/>
-      <c r="K93" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L93" s="10" t="e"/>
-      <c r="M93" s="10" t="e"/>
-      <c r="N93" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O93" s="20" t="e"/>
+      <c r="B93" s="16" t="e"/>
+      <c r="C93" s="16" t="e"/>
+      <c r="D93" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="16" t="e"/>
+      <c r="F93" s="16" t="e"/>
+      <c r="G93" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="17" t="n">
+        <v>198</v>
+      </c>
+      <c r="I93" s="18" t="e"/>
+      <c r="J93" s="18" t="e"/>
+      <c r="K93" s="17" t="n">
+        <v>198</v>
+      </c>
+      <c r="L93" s="18" t="e"/>
+      <c r="M93" s="18" t="e"/>
+      <c r="N93" s="17" t="n">
+        <v>198</v>
+      </c>
+      <c r="O93" s="21" t="e"/>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
       <c r="A94" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" s="19" t="e"/>
       <c r="C94" s="19" t="e"/>
@@ -3019,85 +2962,81 @@
       <c r="F94" s="19" t="e"/>
       <c r="G94" s="19" t="e"/>
       <c r="H94" s="9" t="n">
-        <v>176</v>
-      </c>
-      <c r="I94" s="9" t="n">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I94" s="10" t="e"/>
       <c r="J94" s="10" t="e"/>
       <c r="K94" s="9" t="n">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="L94" s="10" t="e"/>
-      <c r="M94" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="M94" s="10" t="e"/>
       <c r="N94" s="9" t="n">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="O94" s="20" t="e"/>
     </row>
-    <row r="95" ht="11" customHeight="true">
-      <c r="A95" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="16" t="e"/>
-      <c r="C95" s="16" t="e"/>
-      <c r="D95" s="16" t="s">
+    <row r="95" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A95" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="19" t="e"/>
+      <c r="C95" s="19" t="e"/>
+      <c r="D95" s="19" t="e"/>
+      <c r="E95" s="19" t="e"/>
+      <c r="F95" s="19" t="e"/>
+      <c r="G95" s="19" t="e"/>
+      <c r="H95" s="9" t="n">
+        <v>191</v>
+      </c>
+      <c r="I95" s="10" t="e"/>
+      <c r="J95" s="10" t="e"/>
+      <c r="K95" s="9" t="n">
+        <v>191</v>
+      </c>
+      <c r="L95" s="10" t="e"/>
+      <c r="M95" s="10" t="e"/>
+      <c r="N95" s="9" t="n">
+        <v>191</v>
+      </c>
+      <c r="O95" s="20" t="e"/>
+    </row>
+    <row r="96" ht="11" customHeight="true">
+      <c r="A96" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="16" t="e"/>
-      <c r="F95" s="16" t="e"/>
-      <c r="G95" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H95" s="17" t="n">
+      <c r="B96" s="16" t="e"/>
+      <c r="C96" s="16" t="e"/>
+      <c r="D96" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I95" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J95" s="18" t="e"/>
-      <c r="K95" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="L95" s="18" t="e"/>
-      <c r="M95" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="N95" s="17" t="n">
-        <v>80</v>
-      </c>
-      <c r="O95" s="21" t="e"/>
-    </row>
-    <row r="96" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A96" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="19" t="e"/>
-      <c r="C96" s="19" t="e"/>
-      <c r="D96" s="19" t="e"/>
-      <c r="E96" s="19" t="e"/>
-      <c r="F96" s="19" t="e"/>
-      <c r="G96" s="19" t="e"/>
-      <c r="H96" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I96" s="10" t="e"/>
-      <c r="J96" s="10" t="e"/>
-      <c r="K96" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L96" s="10" t="e"/>
-      <c r="M96" s="10" t="e"/>
-      <c r="N96" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O96" s="20" t="e"/>
+      <c r="E96" s="16" t="e"/>
+      <c r="F96" s="16" t="e"/>
+      <c r="G96" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" s="17" t="n">
+        <v>192</v>
+      </c>
+      <c r="I96" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" s="18" t="e"/>
+      <c r="K96" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="L96" s="18" t="e"/>
+      <c r="M96" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="O96" s="21" t="e"/>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
       <c r="A97" s="19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B97" s="19" t="e"/>
       <c r="C97" s="19" t="e"/>
@@ -3106,60 +3045,48 @@
       <c r="F97" s="19" t="e"/>
       <c r="G97" s="19" t="e"/>
       <c r="H97" s="9" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="I97" s="9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J97" s="10" t="e"/>
-      <c r="K97" s="9" t="n">
-        <v>75</v>
-      </c>
+      <c r="K97" s="10" t="e"/>
       <c r="L97" s="10" t="e"/>
       <c r="M97" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="N97" s="9" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N97" s="10" t="e"/>
       <c r="O97" s="20" t="e"/>
     </row>
-    <row r="98" ht="11" customHeight="true">
-      <c r="A98" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" s="16" t="e"/>
-      <c r="C98" s="16" t="e"/>
-      <c r="D98" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98" s="16" t="e"/>
-      <c r="F98" s="16" t="e"/>
-      <c r="G98" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="17" t="n">
-        <v>93</v>
-      </c>
-      <c r="I98" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" s="18" t="e"/>
-      <c r="K98" s="17" t="n">
-        <v>83</v>
-      </c>
-      <c r="L98" s="18" t="e"/>
-      <c r="M98" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N98" s="17" t="n">
-        <v>83</v>
-      </c>
-      <c r="O98" s="21" t="e"/>
+    <row r="98" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A98" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="19" t="e"/>
+      <c r="C98" s="19" t="e"/>
+      <c r="D98" s="19" t="e"/>
+      <c r="E98" s="19" t="e"/>
+      <c r="F98" s="19" t="e"/>
+      <c r="G98" s="19" t="e"/>
+      <c r="H98" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I98" s="10" t="e"/>
+      <c r="J98" s="10" t="e"/>
+      <c r="K98" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="L98" s="10" t="e"/>
+      <c r="M98" s="10" t="e"/>
+      <c r="N98" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O98" s="20" t="e"/>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
       <c r="A99" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B99" s="19" t="e"/>
       <c r="C99" s="19" t="e"/>
@@ -3168,81 +3095,77 @@
       <c r="F99" s="19" t="e"/>
       <c r="G99" s="19" t="e"/>
       <c r="H99" s="9" t="n">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="I99" s="10" t="e"/>
       <c r="J99" s="10" t="e"/>
       <c r="K99" s="9" t="n">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="L99" s="10" t="e"/>
       <c r="M99" s="10" t="e"/>
       <c r="N99" s="9" t="n">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="O99" s="20" t="e"/>
     </row>
-    <row r="100" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A100" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="19" t="e"/>
-      <c r="C100" s="19" t="e"/>
-      <c r="D100" s="19" t="e"/>
-      <c r="E100" s="19" t="e"/>
-      <c r="F100" s="19" t="e"/>
-      <c r="G100" s="19" t="e"/>
-      <c r="H100" s="9" t="n">
-        <v>88</v>
-      </c>
-      <c r="I100" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" s="10" t="e"/>
-      <c r="K100" s="9" t="n">
-        <v>78</v>
-      </c>
-      <c r="L100" s="10" t="e"/>
-      <c r="M100" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="N100" s="9" t="n">
-        <v>78</v>
-      </c>
-      <c r="O100" s="20" t="e"/>
-    </row>
-    <row r="101" ht="11" customHeight="true">
-      <c r="A101" s="16" t="s">
+    <row r="100" ht="11" customHeight="true">
+      <c r="A100" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="16" t="e"/>
+      <c r="C100" s="16" t="e"/>
+      <c r="D100" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="16" t="e"/>
-      <c r="C101" s="16" t="e"/>
-      <c r="D101" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="16" t="e"/>
-      <c r="F101" s="16" t="e"/>
-      <c r="G101" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H101" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I101" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J101" s="18" t="e"/>
-      <c r="K101" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="L101" s="18" t="e"/>
-      <c r="M101" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N101" s="17" t="n">
-        <v>98</v>
-      </c>
-      <c r="O101" s="21" t="e"/>
+      <c r="E100" s="16" t="e"/>
+      <c r="F100" s="16" t="e"/>
+      <c r="G100" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" s="17" t="n">
+        <v>202</v>
+      </c>
+      <c r="I100" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" s="18" t="e"/>
+      <c r="K100" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="L100" s="18" t="e"/>
+      <c r="M100" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N100" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="O100" s="21" t="e"/>
+    </row>
+    <row r="101" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A101" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="19" t="e"/>
+      <c r="C101" s="19" t="e"/>
+      <c r="D101" s="19" t="e"/>
+      <c r="E101" s="19" t="e"/>
+      <c r="F101" s="19" t="e"/>
+      <c r="G101" s="19" t="e"/>
+      <c r="H101" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I101" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" s="10" t="e"/>
+      <c r="K101" s="10" t="e"/>
+      <c r="L101" s="10" t="e"/>
+      <c r="M101" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N101" s="10" t="e"/>
+      <c r="O101" s="20" t="e"/>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
       <c r="A102" s="19" t="s">
@@ -3255,17 +3178,17 @@
       <c r="F102" s="19" t="e"/>
       <c r="G102" s="19" t="e"/>
       <c r="H102" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I102" s="10" t="e"/>
       <c r="J102" s="10" t="e"/>
       <c r="K102" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L102" s="10" t="e"/>
       <c r="M102" s="10" t="e"/>
       <c r="N102" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O102" s="20" t="e"/>
     </row>
@@ -3280,32 +3203,28 @@
       <c r="F103" s="19" t="e"/>
       <c r="G103" s="19" t="e"/>
       <c r="H103" s="9" t="n">
-        <v>92</v>
-      </c>
-      <c r="I103" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="I103" s="10" t="e"/>
       <c r="J103" s="10" t="e"/>
       <c r="K103" s="9" t="n">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="L103" s="10" t="e"/>
-      <c r="M103" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M103" s="10" t="e"/>
       <c r="N103" s="9" t="n">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="O103" s="20" t="e"/>
     </row>
     <row r="104" ht="11" customHeight="true">
       <c r="A104" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="16" t="e"/>
       <c r="C104" s="16" t="e"/>
       <c r="D104" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E104" s="16" t="e"/>
       <c r="F104" s="16" t="e"/>
@@ -3313,21 +3232,17 @@
         <v>25</v>
       </c>
       <c r="H104" s="17" t="n">
-        <v>104</v>
-      </c>
-      <c r="I104" s="17" t="n">
-        <v>13</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I104" s="18" t="e"/>
       <c r="J104" s="18" t="e"/>
       <c r="K104" s="17" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L104" s="18" t="e"/>
-      <c r="M104" s="17" t="n">
-        <v>13</v>
-      </c>
+      <c r="M104" s="18" t="e"/>
       <c r="N104" s="17" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O104" s="21" t="e"/>
     </row>
@@ -3342,21 +3257,17 @@
       <c r="F105" s="19" t="e"/>
       <c r="G105" s="19" t="e"/>
       <c r="H105" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="I105" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I105" s="10" t="e"/>
       <c r="J105" s="10" t="e"/>
       <c r="K105" s="9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L105" s="10" t="e"/>
-      <c r="M105" s="9" t="n">
-        <v>11</v>
-      </c>
+      <c r="M105" s="10" t="e"/>
       <c r="N105" s="9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O105" s="20" t="e"/>
     </row>
@@ -3371,32 +3282,28 @@
       <c r="F106" s="19" t="e"/>
       <c r="G106" s="19" t="e"/>
       <c r="H106" s="9" t="n">
-        <v>83</v>
-      </c>
-      <c r="I106" s="9" t="n">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I106" s="10" t="e"/>
       <c r="J106" s="10" t="e"/>
       <c r="K106" s="9" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L106" s="10" t="e"/>
-      <c r="M106" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="M106" s="10" t="e"/>
       <c r="N106" s="9" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O106" s="20" t="e"/>
     </row>
     <row r="107" ht="11" customHeight="true">
       <c r="A107" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="16" t="e"/>
       <c r="C107" s="16" t="e"/>
       <c r="D107" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" s="16" t="e"/>
       <c r="F107" s="16" t="e"/>
@@ -3404,17 +3311,17 @@
         <v>25</v>
       </c>
       <c r="H107" s="17" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I107" s="18" t="e"/>
       <c r="J107" s="18" t="e"/>
       <c r="K107" s="17" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L107" s="18" t="e"/>
       <c r="M107" s="18" t="e"/>
       <c r="N107" s="17" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="O107" s="21" t="e"/>
     </row>
@@ -3429,17 +3336,17 @@
       <c r="F108" s="19" t="e"/>
       <c r="G108" s="19" t="e"/>
       <c r="H108" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I108" s="10" t="e"/>
       <c r="J108" s="10" t="e"/>
       <c r="K108" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L108" s="10" t="e"/>
       <c r="M108" s="10" t="e"/>
       <c r="N108" s="9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O108" s="20" t="e"/>
     </row>
@@ -3454,53 +3361,132 @@
       <c r="F109" s="19" t="e"/>
       <c r="G109" s="19" t="e"/>
       <c r="H109" s="9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I109" s="10" t="e"/>
       <c r="J109" s="10" t="e"/>
       <c r="K109" s="9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L109" s="10" t="e"/>
       <c r="M109" s="10" t="e"/>
       <c r="N109" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="O109" s="20" t="e"/>
+    </row>
+    <row r="110" ht="11" customHeight="true">
+      <c r="A110" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="O109" s="20" t="e"/>
-    </row>
-    <row r="110" ht="13" customHeight="true">
-      <c r="A110" s="12" t="s">
+      <c r="B110" s="16" t="e"/>
+      <c r="C110" s="16" t="e"/>
+      <c r="D110" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="16" t="e"/>
+      <c r="F110" s="16" t="e"/>
+      <c r="G110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="I110" s="18" t="e"/>
+      <c r="J110" s="18" t="e"/>
+      <c r="K110" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="L110" s="18" t="e"/>
+      <c r="M110" s="18" t="e"/>
+      <c r="N110" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="O110" s="21" t="e"/>
+    </row>
+    <row r="111" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A111" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="19" t="e"/>
+      <c r="C111" s="19" t="e"/>
+      <c r="D111" s="19" t="e"/>
+      <c r="E111" s="19" t="e"/>
+      <c r="F111" s="19" t="e"/>
+      <c r="G111" s="19" t="e"/>
+      <c r="H111" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" s="10" t="e"/>
+      <c r="J111" s="10" t="e"/>
+      <c r="K111" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L111" s="10" t="e"/>
+      <c r="M111" s="10" t="e"/>
+      <c r="N111" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O111" s="20" t="e"/>
+    </row>
+    <row r="112" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A112" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="19" t="e"/>
+      <c r="C112" s="19" t="e"/>
+      <c r="D112" s="19" t="e"/>
+      <c r="E112" s="19" t="e"/>
+      <c r="F112" s="19" t="e"/>
+      <c r="G112" s="19" t="e"/>
+      <c r="H112" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I112" s="10" t="e"/>
+      <c r="J112" s="10" t="e"/>
+      <c r="K112" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L112" s="10" t="e"/>
+      <c r="M112" s="10" t="e"/>
+      <c r="N112" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="O112" s="20" t="e"/>
+    </row>
+    <row r="113" ht="13" customHeight="true">
+      <c r="A113" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B110" s="12" t="e"/>
-      <c r="C110" s="12" t="e"/>
-      <c r="D110" s="12" t="e"/>
-      <c r="E110" s="12" t="e"/>
-      <c r="F110" s="12" t="e"/>
-      <c r="G110" s="12" t="e"/>
-      <c r="H110" s="13" t="n">
-        <v>3108</v>
-      </c>
-      <c r="I110" s="14" t="n">
-        <v>74</v>
-      </c>
-      <c r="J110" s="15" t="e"/>
-      <c r="K110" s="13" t="n">
-        <v>3034</v>
-      </c>
-      <c r="L110" s="14" t="n">
+      <c r="B113" s="12" t="e"/>
+      <c r="C113" s="12" t="e"/>
+      <c r="D113" s="12" t="e"/>
+      <c r="E113" s="12" t="e"/>
+      <c r="F113" s="12" t="e"/>
+      <c r="G113" s="12" t="e"/>
+      <c r="H113" s="13" t="n">
+        <v>3286</v>
+      </c>
+      <c r="I113" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J113" s="15" t="e"/>
+      <c r="K113" s="13" t="n">
+        <v>3273</v>
+      </c>
+      <c r="L113" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="M110" s="14" t="n">
-        <v>74</v>
-      </c>
-      <c r="N110" s="13" t="n">
-        <v>3064</v>
-      </c>
-      <c r="O110" s="15" t="e"/>
+      <c r="M113" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N113" s="13" t="n">
+        <v>3303</v>
+      </c>
+      <c r="O113" s="15" t="e"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
+  <mergeCells count="157">
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3614,36 +3600,35 @@
     <mergeCell ref="D77:F77"/>
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:F81"/>
     <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
     <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
     <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
     <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
     <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
     <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A101:G101"/>
     <mergeCell ref="A102:G102"/>
     <mergeCell ref="A103:G103"/>
     <mergeCell ref="A104:C104"/>
@@ -3654,7 +3639,11 @@
     <mergeCell ref="D107:F107"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A113:G113"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9"/>
